--- a/Code/Results/Cases/Case_2_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9953171877745628</v>
+        <v>0.9953171877745639</v>
       </c>
       <c r="D2">
-        <v>1.013729661203665</v>
+        <v>1.013729661203666</v>
       </c>
       <c r="E2">
-        <v>0.9767398409809186</v>
+        <v>0.9767398409809193</v>
       </c>
       <c r="F2">
-        <v>0.99884665637931</v>
+        <v>0.9988466563793108</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.042505607316286</v>
       </c>
       <c r="J2">
-        <v>1.017638868803853</v>
+        <v>1.017638868803854</v>
       </c>
       <c r="K2">
-        <v>1.025000977265507</v>
+        <v>1.025000977265508</v>
       </c>
       <c r="L2">
-        <v>0.9885330283204123</v>
+        <v>0.9885330283204129</v>
       </c>
       <c r="M2">
-        <v>1.010322082530493</v>
+        <v>1.010322082530494</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002931619003964</v>
+        <v>1.002931619003963</v>
       </c>
       <c r="D3">
-        <v>1.019423992232332</v>
+        <v>1.019423992232331</v>
       </c>
       <c r="E3">
-        <v>0.9826363166434351</v>
+        <v>0.9826363166434346</v>
       </c>
       <c r="F3">
         <v>1.006099307229755</v>
@@ -474,19 +474,19 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045320481574764</v>
+        <v>1.045320481574763</v>
       </c>
       <c r="J3">
-        <v>1.023342682922717</v>
+        <v>1.023342682922716</v>
       </c>
       <c r="K3">
         <v>1.02981422836469</v>
       </c>
       <c r="L3">
-        <v>0.9934962981649206</v>
+        <v>0.9934962981649201</v>
       </c>
       <c r="M3">
-        <v>1.016654736623829</v>
+        <v>1.016654736623828</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,10 +500,10 @@
         <v>1.007700821509294</v>
       </c>
       <c r="D4">
-        <v>1.022992519394324</v>
+        <v>1.022992519394323</v>
       </c>
       <c r="E4">
-        <v>0.9863486398113873</v>
+        <v>0.9863486398113874</v>
       </c>
       <c r="F4">
         <v>1.010654463994843</v>
@@ -518,7 +518,7 @@
         <v>1.026909569946974</v>
       </c>
       <c r="K4">
-        <v>1.032821144139757</v>
+        <v>1.032821144139756</v>
       </c>
       <c r="L4">
         <v>0.9966146657546677</v>
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009670191400617</v>
+        <v>1.009670191400618</v>
       </c>
       <c r="D5">
         <v>1.024466438077305</v>
       </c>
       <c r="E5">
-        <v>0.987885960710654</v>
+        <v>0.9878859607106547</v>
       </c>
       <c r="F5">
         <v>1.012538340419459</v>
@@ -553,16 +553,16 @@
         <v>1.047787543308474</v>
       </c>
       <c r="J5">
-        <v>1.028381043625721</v>
+        <v>1.028381043625722</v>
       </c>
       <c r="K5">
-        <v>1.034060847816063</v>
+        <v>1.034060847816064</v>
       </c>
       <c r="L5">
-        <v>0.9979044912611037</v>
+        <v>0.9979044912611043</v>
       </c>
       <c r="M5">
-        <v>1.022266892073429</v>
+        <v>1.02226689207343</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009998829450887</v>
+        <v>1.009998829450886</v>
       </c>
       <c r="D6">
-        <v>1.024712415079839</v>
+        <v>1.024712415079838</v>
       </c>
       <c r="E6">
-        <v>0.9881427519439865</v>
+        <v>0.9881427519439863</v>
       </c>
       <c r="F6">
-        <v>1.012852878746236</v>
+        <v>1.012852878746235</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04790723116361</v>
+        <v>1.047907231163609</v>
       </c>
       <c r="J6">
-        <v>1.028626510044482</v>
+        <v>1.02862651004448</v>
       </c>
       <c r="K6">
-        <v>1.034267605570909</v>
+        <v>1.034267605570908</v>
       </c>
       <c r="L6">
-        <v>0.9981198515989871</v>
+        <v>0.998119851598987</v>
       </c>
       <c r="M6">
-        <v>1.022540777851727</v>
+        <v>1.022540777851726</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007727273475493</v>
+        <v>1.007727273475495</v>
       </c>
       <c r="D7">
-        <v>1.023012315381466</v>
+        <v>1.023012315381467</v>
       </c>
       <c r="E7">
-        <v>0.9863692715862246</v>
+        <v>0.9863692715862242</v>
       </c>
       <c r="F7">
         <v>1.01067975632881</v>
@@ -626,19 +626,19 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047078713115196</v>
+        <v>1.047078713115197</v>
       </c>
       <c r="J7">
-        <v>1.026929340029503</v>
+        <v>1.026929340029505</v>
       </c>
       <c r="K7">
-        <v>1.032837803311558</v>
+        <v>1.032837803311559</v>
       </c>
       <c r="L7">
-        <v>0.9966319820335747</v>
+        <v>0.9966319820335746</v>
       </c>
       <c r="M7">
-        <v>1.020648013757269</v>
+        <v>1.02064801375727</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9979245823481967</v>
+        <v>0.9979245823481957</v>
       </c>
       <c r="D8">
-        <v>1.015679069731891</v>
+        <v>1.01567906973189</v>
       </c>
       <c r="E8">
-        <v>0.9787547710947637</v>
+        <v>0.9787547710947632</v>
       </c>
       <c r="F8">
-        <v>1.001327437343594</v>
+        <v>1.001327437343593</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043472518054237</v>
+        <v>1.043472518054236</v>
       </c>
       <c r="J8">
-        <v>1.01959315982921</v>
+        <v>1.019593159829209</v>
       </c>
       <c r="K8">
-        <v>1.026650765175569</v>
+        <v>1.026650765175568</v>
       </c>
       <c r="L8">
-        <v>0.9902304260582379</v>
+        <v>0.9902304260582373</v>
       </c>
       <c r="M8">
-        <v>1.012489457620989</v>
+        <v>1.012489457620988</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9793323173326681</v>
+        <v>0.979332317332669</v>
       </c>
       <c r="D9">
         <v>1.001792694936754</v>
       </c>
       <c r="E9">
-        <v>0.9644808031647584</v>
+        <v>0.964480803164759</v>
       </c>
       <c r="F9">
-        <v>0.9836982278582075</v>
+        <v>0.9836982278582087</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.036518088636538</v>
       </c>
       <c r="J9">
-        <v>1.0056366249082</v>
+        <v>1.005636624908201</v>
       </c>
       <c r="K9">
         <v>1.014856753721723</v>
       </c>
       <c r="L9">
-        <v>0.9781776999485521</v>
+        <v>0.9781776999485527</v>
       </c>
       <c r="M9">
-        <v>0.9970614455985574</v>
+        <v>0.9970614455985587</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9658759375721414</v>
+        <v>0.9658759375721426</v>
       </c>
       <c r="D10">
-        <v>0.9917674347485907</v>
+        <v>0.9917674347485917</v>
       </c>
       <c r="E10">
-        <v>0.9542840749436556</v>
+        <v>0.9542840749436559</v>
       </c>
       <c r="F10">
-        <v>0.9710238247679186</v>
+        <v>0.9710238247679195</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031411842657077</v>
+        <v>1.031411842657078</v>
       </c>
       <c r="J10">
-        <v>0.9955120594945515</v>
+        <v>0.9955120594945526</v>
       </c>
       <c r="K10">
-        <v>1.006286938806654</v>
+        <v>1.006286938806655</v>
       </c>
       <c r="L10">
-        <v>0.9695308972257639</v>
+        <v>0.9695308972257642</v>
       </c>
       <c r="M10">
-        <v>0.9859367321918656</v>
+        <v>0.9859367321918665</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9597506929913733</v>
+        <v>0.9597506929913739</v>
       </c>
       <c r="D11">
-        <v>0.9872125998798162</v>
+        <v>0.9872125998798167</v>
       </c>
       <c r="E11">
-        <v>0.9496797023991318</v>
+        <v>0.9496797023991317</v>
       </c>
       <c r="F11">
-        <v>0.9652775769358114</v>
+        <v>0.9652775769358117</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029071596644799</v>
+        <v>1.0290715966448</v>
       </c>
       <c r="J11">
-        <v>0.9908993421630825</v>
+        <v>0.9908993421630831</v>
       </c>
       <c r="K11">
         <v>1.002379765225087</v>
       </c>
       <c r="L11">
-        <v>0.9656173534763676</v>
+        <v>0.9656173534763677</v>
       </c>
       <c r="M11">
-        <v>0.9808854221834918</v>
+        <v>0.9808854221834921</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.957425965618512</v>
+        <v>0.9574259656185125</v>
       </c>
       <c r="D12">
-        <v>0.9854854382364558</v>
+        <v>0.9854854382364565</v>
       </c>
       <c r="E12">
-        <v>0.9479382856271125</v>
+        <v>0.9479382856271129</v>
       </c>
       <c r="F12">
-        <v>0.9631004388460839</v>
+        <v>0.9631004388460845</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028181142182186</v>
+        <v>1.028181142182187</v>
       </c>
       <c r="J12">
-        <v>0.9891481962227961</v>
+        <v>0.9891481962227969</v>
       </c>
       <c r="K12">
         <v>1.000896099415215</v>
       </c>
       <c r="L12">
-        <v>0.9641358256090676</v>
+        <v>0.9641358256090682</v>
       </c>
       <c r="M12">
-        <v>0.9789704472759367</v>
+        <v>0.9789704472759374</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,25 +839,25 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9579269521027222</v>
+        <v>0.9579269521027225</v>
       </c>
       <c r="D13">
-        <v>0.9858575732198286</v>
+        <v>0.9858575732198289</v>
       </c>
       <c r="E13">
-        <v>0.9483132829287503</v>
+        <v>0.9483132829287504</v>
       </c>
       <c r="F13">
-        <v>0.9635694452652128</v>
+        <v>0.9635694452652129</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028373137490221</v>
+        <v>1.028373137490222</v>
       </c>
       <c r="J13">
-        <v>0.9895255927696909</v>
+        <v>0.9895255927696913</v>
       </c>
       <c r="K13">
         <v>1.001215865975038</v>
@@ -866,7 +866,7 @@
         <v>0.9644549215659498</v>
       </c>
       <c r="M13">
-        <v>0.9793830285730148</v>
+        <v>0.9793830285730147</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,16 +874,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9595595704471873</v>
+        <v>0.9595595704471871</v>
       </c>
       <c r="D14">
-        <v>0.9870705720720827</v>
+        <v>0.987070572072083</v>
       </c>
       <c r="E14">
-        <v>0.9495364088908664</v>
+        <v>0.9495364088908669</v>
       </c>
       <c r="F14">
         <v>0.9650985104212999</v>
@@ -895,16 +895,16 @@
         <v>1.028998434676427</v>
       </c>
       <c r="J14">
-        <v>0.9907553840645356</v>
+        <v>0.9907553840645354</v>
       </c>
       <c r="K14">
         <v>1.002257803266418</v>
       </c>
       <c r="L14">
-        <v>0.9654954734410275</v>
+        <v>0.9654954734410278</v>
       </c>
       <c r="M14">
-        <v>0.9807279411312684</v>
+        <v>0.9807279411312686</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9605587642068363</v>
+        <v>0.9605587642068361</v>
       </c>
       <c r="D15">
-        <v>0.9878131615366502</v>
+        <v>0.9878131615366503</v>
       </c>
       <c r="E15">
-        <v>0.9502858016743401</v>
+        <v>0.95028580167434</v>
       </c>
       <c r="F15">
-        <v>0.9660348288762685</v>
+        <v>0.9660348288762681</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.029380836673749</v>
       </c>
       <c r="J15">
-        <v>0.9915079826077942</v>
+        <v>0.991507982607794</v>
       </c>
       <c r="K15">
         <v>1.002895393551542</v>
       </c>
       <c r="L15">
-        <v>0.9661328219256559</v>
+        <v>0.9661328219256557</v>
       </c>
       <c r="M15">
-        <v>0.9815513456483026</v>
+        <v>0.9815513456483024</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,7 +953,7 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9662757752531363</v>
+        <v>0.966275775253136</v>
       </c>
       <c r="D16">
         <v>0.9920649586892876</v>
@@ -962,7 +962,7 @@
         <v>0.9545854422598196</v>
       </c>
       <c r="F16">
-        <v>0.9713994214375216</v>
+        <v>0.9713994214375211</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>1.031564289309924</v>
       </c>
       <c r="J16">
-        <v>0.9958130910639815</v>
+        <v>0.9958130910639816</v>
       </c>
       <c r="K16">
         <v>1.006541872222042</v>
@@ -980,7 +980,7 @@
         <v>0.96978685835386</v>
       </c>
       <c r="M16">
-        <v>0.9862667480623246</v>
+        <v>0.9862667480623243</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9697788756705598</v>
+        <v>0.9697788756705609</v>
       </c>
       <c r="D17">
-        <v>0.9946726504203005</v>
+        <v>0.9946726504203015</v>
       </c>
       <c r="E17">
-        <v>0.957230041227261</v>
+        <v>0.9572300412272617</v>
       </c>
       <c r="F17">
-        <v>0.9746927610178885</v>
+        <v>0.9746927610178893</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032898145089632</v>
+        <v>1.032898145089633</v>
       </c>
       <c r="J17">
-        <v>0.9984500760853079</v>
+        <v>0.9984500760853091</v>
       </c>
       <c r="K17">
-        <v>1.008774736619139</v>
+        <v>1.00877473661914</v>
       </c>
       <c r="L17">
-        <v>0.9720319778726439</v>
+        <v>0.9720319778726444</v>
       </c>
       <c r="M17">
-        <v>0.9891595612363991</v>
+        <v>0.9891595612363999</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9717937199521575</v>
+        <v>0.9717937199521589</v>
       </c>
       <c r="D18">
-        <v>0.9961732774408136</v>
+        <v>0.996173277440815</v>
       </c>
       <c r="E18">
-        <v>0.9587545464348431</v>
+        <v>0.9587545464348437</v>
       </c>
       <c r="F18">
-        <v>0.9765890964989837</v>
+        <v>0.9765890964989848</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033663825968169</v>
+        <v>1.03366382596817</v>
       </c>
       <c r="J18">
-        <v>0.9999663721803514</v>
+        <v>0.9999663721803528</v>
       </c>
       <c r="K18">
-        <v>1.010058393657304</v>
+        <v>1.010058393657305</v>
       </c>
       <c r="L18">
-        <v>0.9733253503492455</v>
+        <v>0.9733253503492458</v>
       </c>
       <c r="M18">
-        <v>0.9908245508024132</v>
+        <v>0.9908245508024141</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9724760348101368</v>
+        <v>0.9724760348101364</v>
       </c>
       <c r="D19">
-        <v>0.9966815821068596</v>
+        <v>0.9966815821068593</v>
       </c>
       <c r="E19">
-        <v>0.9592713798280126</v>
+        <v>0.9592713798280125</v>
       </c>
       <c r="F19">
         <v>0.9772316338545436</v>
@@ -1091,10 +1091,10 @@
         <v>1.010492990204018</v>
       </c>
       <c r="L19">
-        <v>0.9737636826074739</v>
+        <v>0.9737636826074737</v>
       </c>
       <c r="M19">
-        <v>0.9913885785869467</v>
+        <v>0.9913885785869466</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.969406001079839</v>
+        <v>0.9694060010798381</v>
       </c>
       <c r="D20">
-        <v>0.9943950008414287</v>
+        <v>0.9943950008414277</v>
       </c>
       <c r="E20">
-        <v>0.9569481858239961</v>
+        <v>0.9569481858239958</v>
       </c>
       <c r="F20">
-        <v>0.974341989496072</v>
+        <v>0.9743419894960715</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.032756322818204</v>
       </c>
       <c r="J20">
-        <v>0.9981694318676604</v>
+        <v>0.9981694318676596</v>
       </c>
       <c r="K20">
-        <v>1.008537128643628</v>
+        <v>1.008537128643627</v>
       </c>
       <c r="L20">
-        <v>0.9717927864856307</v>
+        <v>0.9717927864856304</v>
       </c>
       <c r="M20">
-        <v>0.9888515241791043</v>
+        <v>0.9888515241791039</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9590802136614828</v>
+        <v>0.9590802136614826</v>
       </c>
       <c r="D21">
         <v>0.9867143761345974</v>
       </c>
       <c r="E21">
-        <v>0.9491771124423727</v>
+        <v>0.949177112442373</v>
       </c>
       <c r="F21">
-        <v>0.9646494527735989</v>
+        <v>0.964649452773599</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1164,13 +1164,13 @@
         <v>0.9903943139465103</v>
       </c>
       <c r="K21">
-        <v>1.001951897277001</v>
+        <v>1.001951897277</v>
       </c>
       <c r="L21">
-        <v>0.965189847030686</v>
+        <v>0.9651898470306861</v>
       </c>
       <c r="M21">
-        <v>0.9803329966707068</v>
+        <v>0.9803329966707071</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9522985087934442</v>
+        <v>0.9522985087934456</v>
       </c>
       <c r="D22">
-        <v>0.9816791464251351</v>
+        <v>0.9816791464251361</v>
       </c>
       <c r="E22">
-        <v>0.944109277506619</v>
+        <v>0.9441092775066193</v>
       </c>
       <c r="F22">
-        <v>0.9583057845663281</v>
+        <v>0.9583057845663291</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026213140096231</v>
+        <v>1.026213140096232</v>
       </c>
       <c r="J22">
-        <v>0.9852851450914755</v>
+        <v>0.9852851450914769</v>
       </c>
       <c r="K22">
-        <v>0.9976224944927844</v>
+        <v>0.9976224944927856</v>
       </c>
       <c r="L22">
-        <v>0.9608756592672615</v>
+        <v>0.9608756592672617</v>
       </c>
       <c r="M22">
-        <v>0.9747510713245335</v>
+        <v>0.9747510713245344</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9559228115046474</v>
+        <v>0.9559228115046453</v>
       </c>
       <c r="D23">
-        <v>0.9843691365266559</v>
+        <v>0.9843691365266543</v>
       </c>
       <c r="E23">
-        <v>0.9468140847881665</v>
+        <v>0.9468140847881655</v>
       </c>
       <c r="F23">
-        <v>0.9616938111143677</v>
+        <v>0.9616938111143657</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027604762364074</v>
+        <v>1.027604762364073</v>
       </c>
       <c r="J23">
-        <v>0.9880158029278772</v>
+        <v>0.9880158029278752</v>
       </c>
       <c r="K23">
-        <v>0.9999365774424276</v>
+        <v>0.9999365774424258</v>
       </c>
       <c r="L23">
-        <v>0.9631790047099237</v>
+        <v>0.9631790047099227</v>
       </c>
       <c r="M23">
-        <v>0.9777328826820113</v>
+        <v>0.9777328826820093</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9695745746449028</v>
+        <v>0.9695745746449036</v>
       </c>
       <c r="D24">
-        <v>0.9945205215286932</v>
+        <v>0.9945205215286937</v>
       </c>
       <c r="E24">
-        <v>0.9570755997096432</v>
+        <v>0.9570755997096431</v>
       </c>
       <c r="F24">
-        <v>0.9745005638204985</v>
+        <v>0.974500563820499</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032820444184575</v>
+        <v>1.032820444184576</v>
       </c>
       <c r="J24">
-        <v>0.9982963100644042</v>
+        <v>0.998296310064405</v>
       </c>
       <c r="K24">
         <v>1.008644551144992</v>
       </c>
       <c r="L24">
-        <v>0.9719009165625869</v>
+        <v>0.971900916562587</v>
       </c>
       <c r="M24">
-        <v>0.9889907816424887</v>
+        <v>0.9889907816424892</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9843118129841062</v>
+        <v>0.9843118129841046</v>
       </c>
       <c r="D25">
-        <v>1.005508329806681</v>
+        <v>1.005508329806679</v>
       </c>
       <c r="E25">
-        <v>0.9682825156076541</v>
+        <v>0.968282515607653</v>
       </c>
       <c r="F25">
-        <v>0.9884062267480678</v>
+        <v>0.9884062267480663</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03839342696009</v>
+        <v>1.038393426960089</v>
       </c>
       <c r="J25">
-        <v>1.00937893273173</v>
+        <v>1.009378932731728</v>
       </c>
       <c r="K25">
-        <v>1.018021733647135</v>
+        <v>1.018021733647133</v>
       </c>
       <c r="L25">
-        <v>0.9813940044151523</v>
+        <v>0.9813940044151516</v>
       </c>
       <c r="M25">
-        <v>1.0011872274666</v>
+        <v>1.001187227466598</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9953171877745639</v>
+        <v>0.9953171877745628</v>
       </c>
       <c r="D2">
-        <v>1.013729661203666</v>
+        <v>1.013729661203665</v>
       </c>
       <c r="E2">
-        <v>0.9767398409809193</v>
+        <v>0.9767398409809186</v>
       </c>
       <c r="F2">
-        <v>0.9988466563793108</v>
+        <v>0.99884665637931</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.042505607316286</v>
       </c>
       <c r="J2">
-        <v>1.017638868803854</v>
+        <v>1.017638868803853</v>
       </c>
       <c r="K2">
-        <v>1.025000977265508</v>
+        <v>1.025000977265507</v>
       </c>
       <c r="L2">
-        <v>0.9885330283204129</v>
+        <v>0.9885330283204123</v>
       </c>
       <c r="M2">
-        <v>1.010322082530494</v>
+        <v>1.010322082530493</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002931619003963</v>
+        <v>1.002931619003964</v>
       </c>
       <c r="D3">
-        <v>1.019423992232331</v>
+        <v>1.019423992232332</v>
       </c>
       <c r="E3">
-        <v>0.9826363166434346</v>
+        <v>0.9826363166434351</v>
       </c>
       <c r="F3">
         <v>1.006099307229755</v>
@@ -474,19 +474,19 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045320481574763</v>
+        <v>1.045320481574764</v>
       </c>
       <c r="J3">
-        <v>1.023342682922716</v>
+        <v>1.023342682922717</v>
       </c>
       <c r="K3">
         <v>1.02981422836469</v>
       </c>
       <c r="L3">
-        <v>0.9934962981649201</v>
+        <v>0.9934962981649206</v>
       </c>
       <c r="M3">
-        <v>1.016654736623828</v>
+        <v>1.016654736623829</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,10 +500,10 @@
         <v>1.007700821509294</v>
       </c>
       <c r="D4">
-        <v>1.022992519394323</v>
+        <v>1.022992519394324</v>
       </c>
       <c r="E4">
-        <v>0.9863486398113874</v>
+        <v>0.9863486398113873</v>
       </c>
       <c r="F4">
         <v>1.010654463994843</v>
@@ -518,7 +518,7 @@
         <v>1.026909569946974</v>
       </c>
       <c r="K4">
-        <v>1.032821144139756</v>
+        <v>1.032821144139757</v>
       </c>
       <c r="L4">
         <v>0.9966146657546677</v>
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009670191400618</v>
+        <v>1.009670191400617</v>
       </c>
       <c r="D5">
         <v>1.024466438077305</v>
       </c>
       <c r="E5">
-        <v>0.9878859607106547</v>
+        <v>0.987885960710654</v>
       </c>
       <c r="F5">
         <v>1.012538340419459</v>
@@ -553,16 +553,16 @@
         <v>1.047787543308474</v>
       </c>
       <c r="J5">
-        <v>1.028381043625722</v>
+        <v>1.028381043625721</v>
       </c>
       <c r="K5">
-        <v>1.034060847816064</v>
+        <v>1.034060847816063</v>
       </c>
       <c r="L5">
-        <v>0.9979044912611043</v>
+        <v>0.9979044912611037</v>
       </c>
       <c r="M5">
-        <v>1.02226689207343</v>
+        <v>1.022266892073429</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009998829450886</v>
+        <v>1.009998829450887</v>
       </c>
       <c r="D6">
-        <v>1.024712415079838</v>
+        <v>1.024712415079839</v>
       </c>
       <c r="E6">
-        <v>0.9881427519439863</v>
+        <v>0.9881427519439865</v>
       </c>
       <c r="F6">
-        <v>1.012852878746235</v>
+        <v>1.012852878746236</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047907231163609</v>
+        <v>1.04790723116361</v>
       </c>
       <c r="J6">
-        <v>1.02862651004448</v>
+        <v>1.028626510044482</v>
       </c>
       <c r="K6">
-        <v>1.034267605570908</v>
+        <v>1.034267605570909</v>
       </c>
       <c r="L6">
-        <v>0.998119851598987</v>
+        <v>0.9981198515989871</v>
       </c>
       <c r="M6">
-        <v>1.022540777851726</v>
+        <v>1.022540777851727</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007727273475495</v>
+        <v>1.007727273475493</v>
       </c>
       <c r="D7">
-        <v>1.023012315381467</v>
+        <v>1.023012315381466</v>
       </c>
       <c r="E7">
-        <v>0.9863692715862242</v>
+        <v>0.9863692715862246</v>
       </c>
       <c r="F7">
         <v>1.01067975632881</v>
@@ -626,19 +626,19 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047078713115197</v>
+        <v>1.047078713115196</v>
       </c>
       <c r="J7">
-        <v>1.026929340029505</v>
+        <v>1.026929340029503</v>
       </c>
       <c r="K7">
-        <v>1.032837803311559</v>
+        <v>1.032837803311558</v>
       </c>
       <c r="L7">
-        <v>0.9966319820335746</v>
+        <v>0.9966319820335747</v>
       </c>
       <c r="M7">
-        <v>1.02064801375727</v>
+        <v>1.020648013757269</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9979245823481957</v>
+        <v>0.9979245823481967</v>
       </c>
       <c r="D8">
-        <v>1.01567906973189</v>
+        <v>1.015679069731891</v>
       </c>
       <c r="E8">
-        <v>0.9787547710947632</v>
+        <v>0.9787547710947637</v>
       </c>
       <c r="F8">
-        <v>1.001327437343593</v>
+        <v>1.001327437343594</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043472518054236</v>
+        <v>1.043472518054237</v>
       </c>
       <c r="J8">
-        <v>1.019593159829209</v>
+        <v>1.01959315982921</v>
       </c>
       <c r="K8">
-        <v>1.026650765175568</v>
+        <v>1.026650765175569</v>
       </c>
       <c r="L8">
-        <v>0.9902304260582373</v>
+        <v>0.9902304260582379</v>
       </c>
       <c r="M8">
-        <v>1.012489457620988</v>
+        <v>1.012489457620989</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.979332317332669</v>
+        <v>0.9793323173326681</v>
       </c>
       <c r="D9">
         <v>1.001792694936754</v>
       </c>
       <c r="E9">
-        <v>0.964480803164759</v>
+        <v>0.9644808031647584</v>
       </c>
       <c r="F9">
-        <v>0.9836982278582087</v>
+        <v>0.9836982278582075</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.036518088636538</v>
       </c>
       <c r="J9">
-        <v>1.005636624908201</v>
+        <v>1.0056366249082</v>
       </c>
       <c r="K9">
         <v>1.014856753721723</v>
       </c>
       <c r="L9">
-        <v>0.9781776999485527</v>
+        <v>0.9781776999485521</v>
       </c>
       <c r="M9">
-        <v>0.9970614455985587</v>
+        <v>0.9970614455985574</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9658759375721426</v>
+        <v>0.9658759375721414</v>
       </c>
       <c r="D10">
-        <v>0.9917674347485917</v>
+        <v>0.9917674347485907</v>
       </c>
       <c r="E10">
-        <v>0.9542840749436559</v>
+        <v>0.9542840749436556</v>
       </c>
       <c r="F10">
-        <v>0.9710238247679195</v>
+        <v>0.9710238247679186</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031411842657078</v>
+        <v>1.031411842657077</v>
       </c>
       <c r="J10">
-        <v>0.9955120594945526</v>
+        <v>0.9955120594945515</v>
       </c>
       <c r="K10">
-        <v>1.006286938806655</v>
+        <v>1.006286938806654</v>
       </c>
       <c r="L10">
-        <v>0.9695308972257642</v>
+        <v>0.9695308972257639</v>
       </c>
       <c r="M10">
-        <v>0.9859367321918665</v>
+        <v>0.9859367321918656</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9597506929913739</v>
+        <v>0.9597506929913733</v>
       </c>
       <c r="D11">
-        <v>0.9872125998798167</v>
+        <v>0.9872125998798162</v>
       </c>
       <c r="E11">
-        <v>0.9496797023991317</v>
+        <v>0.9496797023991318</v>
       </c>
       <c r="F11">
-        <v>0.9652775769358117</v>
+        <v>0.9652775769358114</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0290715966448</v>
+        <v>1.029071596644799</v>
       </c>
       <c r="J11">
-        <v>0.9908993421630831</v>
+        <v>0.9908993421630825</v>
       </c>
       <c r="K11">
         <v>1.002379765225087</v>
       </c>
       <c r="L11">
-        <v>0.9656173534763677</v>
+        <v>0.9656173534763676</v>
       </c>
       <c r="M11">
-        <v>0.9808854221834921</v>
+        <v>0.9808854221834918</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9574259656185125</v>
+        <v>0.957425965618512</v>
       </c>
       <c r="D12">
-        <v>0.9854854382364565</v>
+        <v>0.9854854382364558</v>
       </c>
       <c r="E12">
-        <v>0.9479382856271129</v>
+        <v>0.9479382856271125</v>
       </c>
       <c r="F12">
-        <v>0.9631004388460845</v>
+        <v>0.9631004388460839</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028181142182187</v>
+        <v>1.028181142182186</v>
       </c>
       <c r="J12">
-        <v>0.9891481962227969</v>
+        <v>0.9891481962227961</v>
       </c>
       <c r="K12">
         <v>1.000896099415215</v>
       </c>
       <c r="L12">
-        <v>0.9641358256090682</v>
+        <v>0.9641358256090676</v>
       </c>
       <c r="M12">
-        <v>0.9789704472759374</v>
+        <v>0.9789704472759367</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,25 +839,25 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9579269521027225</v>
+        <v>0.9579269521027222</v>
       </c>
       <c r="D13">
-        <v>0.9858575732198289</v>
+        <v>0.9858575732198286</v>
       </c>
       <c r="E13">
-        <v>0.9483132829287504</v>
+        <v>0.9483132829287503</v>
       </c>
       <c r="F13">
-        <v>0.9635694452652129</v>
+        <v>0.9635694452652128</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028373137490222</v>
+        <v>1.028373137490221</v>
       </c>
       <c r="J13">
-        <v>0.9895255927696913</v>
+        <v>0.9895255927696909</v>
       </c>
       <c r="K13">
         <v>1.001215865975038</v>
@@ -866,7 +866,7 @@
         <v>0.9644549215659498</v>
       </c>
       <c r="M13">
-        <v>0.9793830285730147</v>
+        <v>0.9793830285730148</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,16 +874,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.9595595704471871</v>
+        <v>0.9595595704471873</v>
       </c>
       <c r="D14">
-        <v>0.987070572072083</v>
+        <v>0.9870705720720827</v>
       </c>
       <c r="E14">
-        <v>0.9495364088908669</v>
+        <v>0.9495364088908664</v>
       </c>
       <c r="F14">
         <v>0.9650985104212999</v>
@@ -895,16 +895,16 @@
         <v>1.028998434676427</v>
       </c>
       <c r="J14">
-        <v>0.9907553840645354</v>
+        <v>0.9907553840645356</v>
       </c>
       <c r="K14">
         <v>1.002257803266418</v>
       </c>
       <c r="L14">
-        <v>0.9654954734410278</v>
+        <v>0.9654954734410275</v>
       </c>
       <c r="M14">
-        <v>0.9807279411312686</v>
+        <v>0.9807279411312684</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9605587642068361</v>
+        <v>0.9605587642068363</v>
       </c>
       <c r="D15">
-        <v>0.9878131615366503</v>
+        <v>0.9878131615366502</v>
       </c>
       <c r="E15">
-        <v>0.95028580167434</v>
+        <v>0.9502858016743401</v>
       </c>
       <c r="F15">
-        <v>0.9660348288762681</v>
+        <v>0.9660348288762685</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.029380836673749</v>
       </c>
       <c r="J15">
-        <v>0.991507982607794</v>
+        <v>0.9915079826077942</v>
       </c>
       <c r="K15">
         <v>1.002895393551542</v>
       </c>
       <c r="L15">
-        <v>0.9661328219256557</v>
+        <v>0.9661328219256559</v>
       </c>
       <c r="M15">
-        <v>0.9815513456483024</v>
+        <v>0.9815513456483026</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,7 +953,7 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.966275775253136</v>
+        <v>0.9662757752531363</v>
       </c>
       <c r="D16">
         <v>0.9920649586892876</v>
@@ -962,7 +962,7 @@
         <v>0.9545854422598196</v>
       </c>
       <c r="F16">
-        <v>0.9713994214375211</v>
+        <v>0.9713994214375216</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>1.031564289309924</v>
       </c>
       <c r="J16">
-        <v>0.9958130910639816</v>
+        <v>0.9958130910639815</v>
       </c>
       <c r="K16">
         <v>1.006541872222042</v>
@@ -980,7 +980,7 @@
         <v>0.96978685835386</v>
       </c>
       <c r="M16">
-        <v>0.9862667480623243</v>
+        <v>0.9862667480623246</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9697788756705609</v>
+        <v>0.9697788756705598</v>
       </c>
       <c r="D17">
-        <v>0.9946726504203015</v>
+        <v>0.9946726504203005</v>
       </c>
       <c r="E17">
-        <v>0.9572300412272617</v>
+        <v>0.957230041227261</v>
       </c>
       <c r="F17">
-        <v>0.9746927610178893</v>
+        <v>0.9746927610178885</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032898145089633</v>
+        <v>1.032898145089632</v>
       </c>
       <c r="J17">
-        <v>0.9984500760853091</v>
+        <v>0.9984500760853079</v>
       </c>
       <c r="K17">
-        <v>1.00877473661914</v>
+        <v>1.008774736619139</v>
       </c>
       <c r="L17">
-        <v>0.9720319778726444</v>
+        <v>0.9720319778726439</v>
       </c>
       <c r="M17">
-        <v>0.9891595612363999</v>
+        <v>0.9891595612363991</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9717937199521589</v>
+        <v>0.9717937199521575</v>
       </c>
       <c r="D18">
-        <v>0.996173277440815</v>
+        <v>0.9961732774408136</v>
       </c>
       <c r="E18">
-        <v>0.9587545464348437</v>
+        <v>0.9587545464348431</v>
       </c>
       <c r="F18">
-        <v>0.9765890964989848</v>
+        <v>0.9765890964989837</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03366382596817</v>
+        <v>1.033663825968169</v>
       </c>
       <c r="J18">
-        <v>0.9999663721803528</v>
+        <v>0.9999663721803514</v>
       </c>
       <c r="K18">
-        <v>1.010058393657305</v>
+        <v>1.010058393657304</v>
       </c>
       <c r="L18">
-        <v>0.9733253503492458</v>
+        <v>0.9733253503492455</v>
       </c>
       <c r="M18">
-        <v>0.9908245508024141</v>
+        <v>0.9908245508024132</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9724760348101364</v>
+        <v>0.9724760348101368</v>
       </c>
       <c r="D19">
-        <v>0.9966815821068593</v>
+        <v>0.9966815821068596</v>
       </c>
       <c r="E19">
-        <v>0.9592713798280125</v>
+        <v>0.9592713798280126</v>
       </c>
       <c r="F19">
         <v>0.9772316338545436</v>
@@ -1091,10 +1091,10 @@
         <v>1.010492990204018</v>
       </c>
       <c r="L19">
-        <v>0.9737636826074737</v>
+        <v>0.9737636826074739</v>
       </c>
       <c r="M19">
-        <v>0.9913885785869466</v>
+        <v>0.9913885785869467</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9694060010798381</v>
+        <v>0.969406001079839</v>
       </c>
       <c r="D20">
-        <v>0.9943950008414277</v>
+        <v>0.9943950008414287</v>
       </c>
       <c r="E20">
-        <v>0.9569481858239958</v>
+        <v>0.9569481858239961</v>
       </c>
       <c r="F20">
-        <v>0.9743419894960715</v>
+        <v>0.974341989496072</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.032756322818204</v>
       </c>
       <c r="J20">
-        <v>0.9981694318676596</v>
+        <v>0.9981694318676604</v>
       </c>
       <c r="K20">
-        <v>1.008537128643627</v>
+        <v>1.008537128643628</v>
       </c>
       <c r="L20">
-        <v>0.9717927864856304</v>
+        <v>0.9717927864856307</v>
       </c>
       <c r="M20">
-        <v>0.9888515241791039</v>
+        <v>0.9888515241791043</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9590802136614826</v>
+        <v>0.9590802136614828</v>
       </c>
       <c r="D21">
         <v>0.9867143761345974</v>
       </c>
       <c r="E21">
-        <v>0.949177112442373</v>
+        <v>0.9491771124423727</v>
       </c>
       <c r="F21">
-        <v>0.964649452773599</v>
+        <v>0.9646494527735989</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1164,13 +1164,13 @@
         <v>0.9903943139465103</v>
       </c>
       <c r="K21">
-        <v>1.001951897277</v>
+        <v>1.001951897277001</v>
       </c>
       <c r="L21">
-        <v>0.9651898470306861</v>
+        <v>0.965189847030686</v>
       </c>
       <c r="M21">
-        <v>0.9803329966707071</v>
+        <v>0.9803329966707068</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9522985087934456</v>
+        <v>0.9522985087934442</v>
       </c>
       <c r="D22">
-        <v>0.9816791464251361</v>
+        <v>0.9816791464251351</v>
       </c>
       <c r="E22">
-        <v>0.9441092775066193</v>
+        <v>0.944109277506619</v>
       </c>
       <c r="F22">
-        <v>0.9583057845663291</v>
+        <v>0.9583057845663281</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026213140096232</v>
+        <v>1.026213140096231</v>
       </c>
       <c r="J22">
-        <v>0.9852851450914769</v>
+        <v>0.9852851450914755</v>
       </c>
       <c r="K22">
-        <v>0.9976224944927856</v>
+        <v>0.9976224944927844</v>
       </c>
       <c r="L22">
-        <v>0.9608756592672617</v>
+        <v>0.9608756592672615</v>
       </c>
       <c r="M22">
-        <v>0.9747510713245344</v>
+        <v>0.9747510713245335</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9559228115046453</v>
+        <v>0.9559228115046474</v>
       </c>
       <c r="D23">
-        <v>0.9843691365266543</v>
+        <v>0.9843691365266559</v>
       </c>
       <c r="E23">
-        <v>0.9468140847881655</v>
+        <v>0.9468140847881665</v>
       </c>
       <c r="F23">
-        <v>0.9616938111143657</v>
+        <v>0.9616938111143677</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027604762364073</v>
+        <v>1.027604762364074</v>
       </c>
       <c r="J23">
-        <v>0.9880158029278752</v>
+        <v>0.9880158029278772</v>
       </c>
       <c r="K23">
-        <v>0.9999365774424258</v>
+        <v>0.9999365774424276</v>
       </c>
       <c r="L23">
-        <v>0.9631790047099227</v>
+        <v>0.9631790047099237</v>
       </c>
       <c r="M23">
-        <v>0.9777328826820093</v>
+        <v>0.9777328826820113</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9695745746449036</v>
+        <v>0.9695745746449028</v>
       </c>
       <c r="D24">
-        <v>0.9945205215286937</v>
+        <v>0.9945205215286932</v>
       </c>
       <c r="E24">
-        <v>0.9570755997096431</v>
+        <v>0.9570755997096432</v>
       </c>
       <c r="F24">
-        <v>0.974500563820499</v>
+        <v>0.9745005638204985</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032820444184576</v>
+        <v>1.032820444184575</v>
       </c>
       <c r="J24">
-        <v>0.998296310064405</v>
+        <v>0.9982963100644042</v>
       </c>
       <c r="K24">
         <v>1.008644551144992</v>
       </c>
       <c r="L24">
-        <v>0.971900916562587</v>
+        <v>0.9719009165625869</v>
       </c>
       <c r="M24">
-        <v>0.9889907816424892</v>
+        <v>0.9889907816424887</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9843118129841046</v>
+        <v>0.9843118129841062</v>
       </c>
       <c r="D25">
-        <v>1.005508329806679</v>
+        <v>1.005508329806681</v>
       </c>
       <c r="E25">
-        <v>0.968282515607653</v>
+        <v>0.9682825156076541</v>
       </c>
       <c r="F25">
-        <v>0.9884062267480663</v>
+        <v>0.9884062267480678</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038393426960089</v>
+        <v>1.03839342696009</v>
       </c>
       <c r="J25">
-        <v>1.009378932731728</v>
+        <v>1.00937893273173</v>
       </c>
       <c r="K25">
-        <v>1.018021733647133</v>
+        <v>1.018021733647135</v>
       </c>
       <c r="L25">
-        <v>0.9813940044151516</v>
+        <v>0.9813940044151523</v>
       </c>
       <c r="M25">
-        <v>1.001187227466598</v>
+        <v>1.0011872274666</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9953171877745628</v>
+        <v>0.9979320094049994</v>
       </c>
       <c r="D2">
-        <v>1.013729661203665</v>
+        <v>1.01574834987825</v>
       </c>
       <c r="E2">
-        <v>0.9767398409809186</v>
+        <v>0.9775062302839923</v>
       </c>
       <c r="F2">
-        <v>0.99884665637931</v>
+        <v>1.000571645469064</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042505607316286</v>
+        <v>1.043675516772663</v>
       </c>
       <c r="J2">
-        <v>1.017638868803853</v>
+        <v>1.020174750141633</v>
       </c>
       <c r="K2">
-        <v>1.025000977265507</v>
+        <v>1.026992559860868</v>
       </c>
       <c r="L2">
-        <v>0.9885330283204123</v>
+        <v>0.9892880961633828</v>
       </c>
       <c r="M2">
-        <v>1.010322082530493</v>
+        <v>1.012023022103234</v>
+      </c>
+      <c r="N2">
+        <v>1.021623515302514</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002931619003964</v>
+        <v>1.005528477654526</v>
       </c>
       <c r="D3">
-        <v>1.019423992232332</v>
+        <v>1.021431940735169</v>
       </c>
       <c r="E3">
-        <v>0.9826363166434351</v>
+        <v>0.983392948231866</v>
       </c>
       <c r="F3">
-        <v>1.006099307229755</v>
+        <v>1.007809407026137</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045320481574764</v>
+        <v>1.046485402237586</v>
       </c>
       <c r="J3">
-        <v>1.023342682922717</v>
+        <v>1.025869557052356</v>
       </c>
       <c r="K3">
-        <v>1.02981422836469</v>
+        <v>1.031797747566341</v>
       </c>
       <c r="L3">
-        <v>0.9934962981649206</v>
+        <v>0.9942428238984858</v>
       </c>
       <c r="M3">
-        <v>1.016654736623829</v>
+        <v>1.018343330749784</v>
+      </c>
+      <c r="N3">
+        <v>1.027326409492253</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007700821509294</v>
+        <v>1.010287223655502</v>
       </c>
       <c r="D4">
-        <v>1.022992519394324</v>
+        <v>1.024994274386763</v>
       </c>
       <c r="E4">
-        <v>0.9863486398113873</v>
+        <v>0.9870995317528729</v>
       </c>
       <c r="F4">
-        <v>1.010654463994843</v>
+        <v>1.012355835440741</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047069048366567</v>
+        <v>1.048231168056218</v>
       </c>
       <c r="J4">
-        <v>1.026909569946974</v>
+        <v>1.029431392262257</v>
       </c>
       <c r="K4">
-        <v>1.032821144139757</v>
+        <v>1.03480011650728</v>
       </c>
       <c r="L4">
-        <v>0.9966146657546677</v>
+        <v>0.9973561887171967</v>
       </c>
       <c r="M4">
-        <v>1.020625977516449</v>
+        <v>1.022307389027789</v>
+      </c>
+      <c r="N4">
+        <v>1.030893302916701</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009670191400617</v>
+        <v>1.012252451275642</v>
       </c>
       <c r="D5">
-        <v>1.024466438077305</v>
+        <v>1.026465754198552</v>
       </c>
       <c r="E5">
-        <v>0.987885960710654</v>
+        <v>0.9886345651271934</v>
       </c>
       <c r="F5">
-        <v>1.012538340419459</v>
+        <v>1.014236239807824</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047787543308474</v>
+        <v>1.048948578913544</v>
       </c>
       <c r="J5">
-        <v>1.028381043625721</v>
+        <v>1.030900910946329</v>
       </c>
       <c r="K5">
-        <v>1.034060847816063</v>
+        <v>1.036038054901419</v>
       </c>
       <c r="L5">
-        <v>0.9979044912611037</v>
+        <v>0.998644025727299</v>
       </c>
       <c r="M5">
-        <v>1.022266892073429</v>
+        <v>1.02394545963404</v>
+      </c>
+      <c r="N5">
+        <v>1.03236490848586</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009998829450887</v>
+        <v>1.012580408009279</v>
       </c>
       <c r="D6">
-        <v>1.024712415079839</v>
+        <v>1.026711330942173</v>
       </c>
       <c r="E6">
-        <v>0.9881427519439865</v>
+        <v>0.9888909793075374</v>
       </c>
       <c r="F6">
-        <v>1.012852878746236</v>
+        <v>1.0145502062107</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04790723116361</v>
+        <v>1.049068089991039</v>
       </c>
       <c r="J6">
-        <v>1.028626510044482</v>
+        <v>1.031146058555308</v>
       </c>
       <c r="K6">
-        <v>1.034267605570909</v>
+        <v>1.036244524448409</v>
       </c>
       <c r="L6">
-        <v>0.9981198515989871</v>
+        <v>0.9988590586204537</v>
       </c>
       <c r="M6">
-        <v>1.022540777851727</v>
+        <v>1.024218877737998</v>
+      </c>
+      <c r="N6">
+        <v>1.032610404232562</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007727273475493</v>
+        <v>1.010313619307269</v>
       </c>
       <c r="D7">
-        <v>1.023012315381466</v>
+        <v>1.025014037157482</v>
       </c>
       <c r="E7">
-        <v>0.9863692715862246</v>
+        <v>0.9871201324836582</v>
       </c>
       <c r="F7">
-        <v>1.01067975632881</v>
+        <v>1.012381080629468</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047078713115196</v>
+        <v>1.048240817962862</v>
       </c>
       <c r="J7">
-        <v>1.026929340029503</v>
+        <v>1.029451135579743</v>
       </c>
       <c r="K7">
-        <v>1.032837803311558</v>
+        <v>1.034816751534382</v>
       </c>
       <c r="L7">
-        <v>0.9966319820335747</v>
+        <v>0.9973734779885363</v>
       </c>
       <c r="M7">
-        <v>1.020648013757269</v>
+        <v>1.022329386598695</v>
+      </c>
+      <c r="N7">
+        <v>1.030913074271961</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9979245823481967</v>
+        <v>1.000533075153023</v>
       </c>
       <c r="D8">
-        <v>1.015679069731891</v>
+        <v>1.017693961753613</v>
       </c>
       <c r="E8">
-        <v>0.9787547710947637</v>
+        <v>0.9795177360689128</v>
       </c>
       <c r="F8">
-        <v>1.001327437343594</v>
+        <v>1.003047194318277</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043472518054237</v>
+        <v>1.044640647402863</v>
       </c>
       <c r="J8">
-        <v>1.01959315982921</v>
+        <v>1.022125825326825</v>
       </c>
       <c r="K8">
-        <v>1.026650765175569</v>
+        <v>1.028639474557541</v>
       </c>
       <c r="L8">
-        <v>0.9902304260582379</v>
+        <v>0.9909824914191846</v>
       </c>
       <c r="M8">
-        <v>1.012489457620989</v>
+        <v>1.014186047026804</v>
+      </c>
+      <c r="N8">
+        <v>1.02357736123826</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9793323173326681</v>
+        <v>0.9819901384544308</v>
       </c>
       <c r="D9">
-        <v>1.001792694936754</v>
+        <v>1.003837443187922</v>
       </c>
       <c r="E9">
-        <v>0.9644808031647584</v>
+        <v>0.9652701331442074</v>
       </c>
       <c r="F9">
-        <v>0.9836982278582075</v>
+        <v>0.9854584431790397</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036518088636538</v>
+        <v>1.037700574276023</v>
       </c>
       <c r="J9">
-        <v>1.0056366249082</v>
+        <v>1.008195303327642</v>
       </c>
       <c r="K9">
-        <v>1.014856753721723</v>
+        <v>1.016868565865475</v>
       </c>
       <c r="L9">
-        <v>0.9781776999485521</v>
+        <v>0.9789529849550622</v>
       </c>
       <c r="M9">
-        <v>0.9970614455985574</v>
+        <v>0.9987919368418642</v>
+      </c>
+      <c r="N9">
+        <v>1.009627056299985</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9658759375721414</v>
+        <v>0.9685759059285226</v>
       </c>
       <c r="D10">
-        <v>0.9917674347485907</v>
+        <v>0.993838020878183</v>
       </c>
       <c r="E10">
-        <v>0.9542840749436556</v>
+        <v>0.9550954506077596</v>
       </c>
       <c r="F10">
-        <v>0.9710238247679186</v>
+        <v>0.9728181453155637</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031411842657077</v>
+        <v>1.032607216141977</v>
       </c>
       <c r="J10">
-        <v>0.9955120594945515</v>
+        <v>0.9980942530687883</v>
       </c>
       <c r="K10">
-        <v>1.006286938806654</v>
+        <v>1.008319430233563</v>
       </c>
       <c r="L10">
-        <v>0.9695308972257639</v>
+        <v>0.9703257322339209</v>
       </c>
       <c r="M10">
-        <v>0.9859367321918656</v>
+        <v>0.9876961544510636</v>
+      </c>
+      <c r="N10">
+        <v>0.9995116613911568</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9597506929913733</v>
+        <v>0.9624717917617482</v>
       </c>
       <c r="D11">
-        <v>0.9872125998798162</v>
+        <v>0.9892962091582168</v>
       </c>
       <c r="E11">
-        <v>0.9496797023991318</v>
+        <v>0.9505019984970526</v>
       </c>
       <c r="F11">
-        <v>0.9652775769358114</v>
+        <v>0.9670888732575114</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029071596644799</v>
+        <v>1.03027357236498</v>
       </c>
       <c r="J11">
-        <v>0.9908993421630825</v>
+        <v>0.9934936406577038</v>
       </c>
       <c r="K11">
-        <v>1.002379765225087</v>
+        <v>1.004422846287793</v>
       </c>
       <c r="L11">
-        <v>0.9656173534763676</v>
+        <v>0.9664219041169585</v>
       </c>
       <c r="M11">
-        <v>0.9808854221834918</v>
+        <v>0.9826593296940026</v>
+      </c>
+      <c r="N11">
+        <v>0.9949045155827512</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.957425965618512</v>
+        <v>0.9601554199549874</v>
       </c>
       <c r="D12">
-        <v>0.9854854382364558</v>
+        <v>0.9875742068685236</v>
       </c>
       <c r="E12">
-        <v>0.9479382856271125</v>
+        <v>0.9487648784016407</v>
       </c>
       <c r="F12">
-        <v>0.9631004388460839</v>
+        <v>0.9649184281839204</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028181142182186</v>
+        <v>1.029385749217485</v>
       </c>
       <c r="J12">
-        <v>0.9891481962227961</v>
+        <v>0.9917473296446789</v>
       </c>
       <c r="K12">
-        <v>1.000896099415215</v>
+        <v>1.002943401209881</v>
       </c>
       <c r="L12">
-        <v>0.9641358256090676</v>
+        <v>0.9649442035857698</v>
       </c>
       <c r="M12">
-        <v>0.9789704472759367</v>
+        <v>0.9807500787411529</v>
+      </c>
+      <c r="N12">
+        <v>0.9931557246077829</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9579269521027222</v>
+        <v>0.9606545898440352</v>
       </c>
       <c r="D13">
-        <v>0.9858575732198286</v>
+        <v>0.9879452197310745</v>
       </c>
       <c r="E13">
-        <v>0.9483132829287503</v>
+        <v>0.9491389425542434</v>
       </c>
       <c r="F13">
-        <v>0.9635694452652128</v>
+        <v>0.9653859803696372</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028373137490221</v>
+        <v>1.029577171532623</v>
       </c>
       <c r="J13">
-        <v>0.9895255927696909</v>
+        <v>0.9921236728421574</v>
       </c>
       <c r="K13">
-        <v>1.001215865975038</v>
+        <v>1.0032622486425</v>
       </c>
       <c r="L13">
-        <v>0.9644549215659498</v>
+        <v>0.9652624681144394</v>
       </c>
       <c r="M13">
-        <v>0.9793830285730148</v>
+        <v>0.981161415779096</v>
+      </c>
+      <c r="N13">
+        <v>0.9935326022557693</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9595595704471873</v>
+        <v>0.9622813490674116</v>
       </c>
       <c r="D14">
-        <v>0.9870705720720827</v>
+        <v>0.9891546009529544</v>
       </c>
       <c r="E14">
-        <v>0.9495364088908664</v>
+        <v>0.9503590550293897</v>
       </c>
       <c r="F14">
-        <v>0.9650985104212999</v>
+        <v>0.9669103517208912</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028998434676427</v>
+        <v>1.030200624084538</v>
       </c>
       <c r="J14">
-        <v>0.9907553840645356</v>
+        <v>0.993350074981472</v>
       </c>
       <c r="K14">
-        <v>1.002257803266418</v>
+        <v>1.004301227083291</v>
       </c>
       <c r="L14">
-        <v>0.9654954734410275</v>
+        <v>0.9663003357922741</v>
       </c>
       <c r="M14">
-        <v>0.9807279411312684</v>
+        <v>0.9825023144555713</v>
+      </c>
+      <c r="N14">
+        <v>0.9947607460267918</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9605587642068363</v>
+        <v>0.9632770024700559</v>
       </c>
       <c r="D15">
-        <v>0.9878131615366502</v>
+        <v>0.9898950056933526</v>
       </c>
       <c r="E15">
-        <v>0.9502858016743401</v>
+        <v>0.9511066240844379</v>
       </c>
       <c r="F15">
-        <v>0.9660348288762685</v>
+        <v>0.9678438313786125</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029380836673749</v>
+        <v>1.030581914109036</v>
       </c>
       <c r="J15">
-        <v>0.9915079826077942</v>
+        <v>0.9941006318967638</v>
       </c>
       <c r="K15">
-        <v>1.002895393551542</v>
+        <v>1.004937033785173</v>
       </c>
       <c r="L15">
-        <v>0.9661328219256559</v>
+        <v>0.9669360604369024</v>
       </c>
       <c r="M15">
-        <v>0.9815513456483026</v>
+        <v>0.9833232930575683</v>
+      </c>
+      <c r="N15">
+        <v>0.9955123688189934</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9662757752531363</v>
+        <v>0.9689744079091831</v>
       </c>
       <c r="D16">
-        <v>0.9920649586892876</v>
+        <v>0.9941347229113594</v>
       </c>
       <c r="E16">
-        <v>0.9545854422598196</v>
+        <v>0.9553961248621411</v>
       </c>
       <c r="F16">
-        <v>0.9713994214375216</v>
+        <v>0.9731926663749346</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031564289309924</v>
+        <v>1.032759248204359</v>
       </c>
       <c r="J16">
-        <v>0.9958130910639815</v>
+        <v>0.9983945257932655</v>
       </c>
       <c r="K16">
-        <v>1.006541872222042</v>
+        <v>1.008573698656351</v>
       </c>
       <c r="L16">
-        <v>0.96978685835386</v>
+        <v>0.9705810773869277</v>
       </c>
       <c r="M16">
-        <v>0.9862667480623246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9880252542137132</v>
+      </c>
+      <c r="N16">
+        <v>0.9998123605373446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9697788756705598</v>
+        <v>0.972466028967456</v>
       </c>
       <c r="D17">
-        <v>0.9946726504203005</v>
+        <v>0.9967353582804631</v>
       </c>
       <c r="E17">
-        <v>0.957230041227261</v>
+        <v>0.9580347531813076</v>
       </c>
       <c r="F17">
-        <v>0.9746927610178885</v>
+        <v>0.9764767486319652</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032898145089632</v>
+        <v>1.034089555874834</v>
       </c>
       <c r="J17">
-        <v>0.9984500760853079</v>
+        <v>1.00102502291725</v>
       </c>
       <c r="K17">
-        <v>1.008774736619139</v>
+        <v>1.010800871650805</v>
       </c>
       <c r="L17">
-        <v>0.9720319778726439</v>
+        <v>0.9728208937264813</v>
       </c>
       <c r="M17">
-        <v>0.9891595612363991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9909101919522372</v>
+      </c>
+      <c r="N17">
+        <v>1.002446593268968</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9717937199521575</v>
+        <v>0.9744744496983299</v>
       </c>
       <c r="D18">
-        <v>0.9961732774408136</v>
+        <v>0.9982320429225782</v>
       </c>
       <c r="E18">
-        <v>0.9587545464348431</v>
+        <v>0.9595559058114334</v>
       </c>
       <c r="F18">
-        <v>0.9765890964989837</v>
+        <v>0.9783678931898065</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033663825968169</v>
+        <v>1.034853263805504</v>
       </c>
       <c r="J18">
-        <v>0.9999663721803514</v>
+        <v>1.00253771637724</v>
       </c>
       <c r="K18">
-        <v>1.010058393657304</v>
+        <v>1.012081363550379</v>
       </c>
       <c r="L18">
-        <v>0.9733253503492455</v>
+        <v>0.9741112912150369</v>
       </c>
       <c r="M18">
-        <v>0.9908245508024132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9925707729955581</v>
+      </c>
+      <c r="N18">
+        <v>1.003961434927179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9724760348101368</v>
+        <v>0.9751546184533613</v>
       </c>
       <c r="D19">
-        <v>0.9966815821068596</v>
+        <v>0.9987390315125292</v>
       </c>
       <c r="E19">
-        <v>0.9592713798280126</v>
+        <v>0.9600716171948048</v>
       </c>
       <c r="F19">
-        <v>0.9772316338545436</v>
+        <v>0.9790086944674933</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03392286097619</v>
+        <v>1.035111641786827</v>
       </c>
       <c r="J19">
-        <v>1.00047978611027</v>
+        <v>1.003049931367738</v>
       </c>
       <c r="K19">
-        <v>1.010492990204018</v>
+        <v>1.01251490595882</v>
       </c>
       <c r="L19">
-        <v>0.9737636826074739</v>
+        <v>0.9745486283075573</v>
       </c>
       <c r="M19">
-        <v>0.9913885785869467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9931333276460287</v>
+      </c>
+      <c r="N19">
+        <v>1.004474377321715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.969406001079839</v>
+        <v>0.9720943573663655</v>
       </c>
       <c r="D20">
-        <v>0.9943950008414287</v>
+        <v>0.9964584475351722</v>
       </c>
       <c r="E20">
-        <v>0.9569481858239961</v>
+        <v>0.9577535247029849</v>
       </c>
       <c r="F20">
-        <v>0.974341989496072</v>
+        <v>0.976126948378783</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032756322818204</v>
+        <v>1.033948104122785</v>
       </c>
       <c r="J20">
-        <v>0.9981694318676604</v>
+        <v>1.000745055675012</v>
       </c>
       <c r="K20">
-        <v>1.008537128643628</v>
+        <v>1.01056385804941</v>
       </c>
       <c r="L20">
-        <v>0.9717927864856307</v>
+        <v>0.9725822588858806</v>
       </c>
       <c r="M20">
-        <v>0.9888515241791043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9906029803864917</v>
+      </c>
+      <c r="N20">
+        <v>1.002166228441133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9590802136614828</v>
+        <v>0.9618037029819152</v>
       </c>
       <c r="D21">
-        <v>0.9867143761345974</v>
+        <v>0.9887994610078973</v>
       </c>
       <c r="E21">
-        <v>0.9491771124423727</v>
+        <v>0.9500006390356311</v>
       </c>
       <c r="F21">
-        <v>0.9646494527735989</v>
+        <v>0.9664626650786445</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028814900495117</v>
+        <v>1.030017627930132</v>
       </c>
       <c r="J21">
-        <v>0.9903943139465103</v>
+        <v>0.9929899930836866</v>
       </c>
       <c r="K21">
-        <v>1.001951897277001</v>
+        <v>1.003996184092489</v>
       </c>
       <c r="L21">
-        <v>0.965189847030686</v>
+        <v>0.9659954935002569</v>
       </c>
       <c r="M21">
-        <v>0.9803329966707068</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9821085420520407</v>
+      </c>
+      <c r="N21">
+        <v>0.9944001527714098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9522985087934442</v>
+        <v>0.9550470690771078</v>
       </c>
       <c r="D22">
-        <v>0.9816791464251351</v>
+        <v>0.9837797296846461</v>
       </c>
       <c r="E22">
-        <v>0.944109277506619</v>
+        <v>0.9449456523407144</v>
       </c>
       <c r="F22">
-        <v>0.9583057845663281</v>
+        <v>0.9601390396146837</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026213140096231</v>
+        <v>1.027423802093608</v>
       </c>
       <c r="J22">
-        <v>0.9852851450914755</v>
+        <v>0.9878954261579838</v>
       </c>
       <c r="K22">
-        <v>0.9976224944927844</v>
+        <v>0.9996795100941563</v>
       </c>
       <c r="L22">
-        <v>0.9608756592672615</v>
+        <v>0.9616927595664057</v>
       </c>
       <c r="M22">
-        <v>0.9747510713245335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9765437825912355</v>
+      </c>
+      <c r="N22">
+        <v>0.9892983509763174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9559228115046474</v>
+        <v>0.9586577694281969</v>
       </c>
       <c r="D23">
-        <v>0.9843691365266559</v>
+        <v>0.9864613061051684</v>
       </c>
       <c r="E23">
-        <v>0.9468140847881665</v>
+        <v>0.9476435013308681</v>
       </c>
       <c r="F23">
-        <v>0.9616938111143677</v>
+        <v>0.963516203223961</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027604762364074</v>
+        <v>1.028811108332382</v>
       </c>
       <c r="J23">
-        <v>0.9880158029278772</v>
+        <v>0.9906181347655105</v>
       </c>
       <c r="K23">
-        <v>0.9999365774424276</v>
+        <v>1.001986668727581</v>
       </c>
       <c r="L23">
-        <v>0.9631790047099237</v>
+        <v>0.9639898993286442</v>
       </c>
       <c r="M23">
-        <v>0.9777328826820113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9795162831122535</v>
+      </c>
+      <c r="N23">
+        <v>0.9920249261423659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9695745746449028</v>
+        <v>0.972262386516542</v>
       </c>
       <c r="D24">
-        <v>0.9945205215286932</v>
+        <v>0.9965836338426325</v>
       </c>
       <c r="E24">
-        <v>0.9570755997096432</v>
+        <v>0.957880654908978</v>
       </c>
       <c r="F24">
-        <v>0.9745005638204985</v>
+        <v>0.9762850831878063</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032820444184575</v>
+        <v>1.034012057770725</v>
       </c>
       <c r="J24">
-        <v>0.9982963100644042</v>
+        <v>1.000871627418009</v>
       </c>
       <c r="K24">
-        <v>1.008644551144992</v>
+        <v>1.0106710115041</v>
       </c>
       <c r="L24">
-        <v>0.9719009165625869</v>
+        <v>0.9726901371202398</v>
       </c>
       <c r="M24">
-        <v>0.9889907816424887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9907418642774207</v>
+      </c>
+      <c r="N24">
+        <v>1.002292979930523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9843118129841062</v>
+        <v>0.9869554463165322</v>
       </c>
       <c r="D25">
-        <v>1.005508329806681</v>
+        <v>1.007544437164451</v>
       </c>
       <c r="E25">
-        <v>0.9682825156076541</v>
+        <v>0.9690643330293284</v>
       </c>
       <c r="F25">
-        <v>0.9884062267480678</v>
+        <v>0.9901548745536186</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03839342696009</v>
+        <v>1.039571684286051</v>
       </c>
       <c r="J25">
-        <v>1.00937893273173</v>
+        <v>1.011929930203429</v>
       </c>
       <c r="K25">
-        <v>1.018021733647135</v>
+        <v>1.020026753605937</v>
       </c>
       <c r="L25">
-        <v>0.9813940044151523</v>
+        <v>0.9821626517173486</v>
       </c>
       <c r="M25">
-        <v>1.0011872274666</v>
+        <v>1.002907970520794</v>
+      </c>
+      <c r="N25">
+        <v>1.013366986774303</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9979320094049994</v>
+        <v>1.027990804410347</v>
       </c>
       <c r="D2">
-        <v>1.01574834987825</v>
+        <v>1.046771533348208</v>
       </c>
       <c r="E2">
-        <v>0.9775062302839923</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.000571645469064</v>
+        <v>1.051202157699226</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043675516772663</v>
+        <v>1.062156771062009</v>
       </c>
       <c r="J2">
-        <v>1.020174750141633</v>
+        <v>1.049365373568387</v>
       </c>
       <c r="K2">
-        <v>1.026992559860868</v>
+        <v>1.057615567187637</v>
       </c>
       <c r="L2">
-        <v>0.9892880961633828</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.012023022103234</v>
+        <v>1.061991438910081</v>
       </c>
       <c r="N2">
-        <v>1.021623515302514</v>
+        <v>1.050855592762745</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005528477654526</v>
+        <v>1.035046040632566</v>
       </c>
       <c r="D3">
-        <v>1.021431940735169</v>
+        <v>1.052424463709548</v>
       </c>
       <c r="E3">
-        <v>0.983392948231866</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.007809407026137</v>
+        <v>1.057388854983572</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046485402237586</v>
+        <v>1.064884286240303</v>
       </c>
       <c r="J3">
-        <v>1.025869557052356</v>
+        <v>1.054624861695489</v>
       </c>
       <c r="K3">
-        <v>1.031797747566341</v>
+        <v>1.062427785059551</v>
       </c>
       <c r="L3">
-        <v>0.9942428238984858</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.018343330749784</v>
+        <v>1.067336544022922</v>
       </c>
       <c r="N3">
-        <v>1.027326409492253</v>
+        <v>1.056122549966259</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010287223655502</v>
+        <v>1.039477914533497</v>
       </c>
       <c r="D4">
-        <v>1.024994274386763</v>
+        <v>1.055977488108575</v>
       </c>
       <c r="E4">
-        <v>0.9870995317528729</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.012355835440741</v>
+        <v>1.061280437434948</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048231168056218</v>
+        <v>1.066584027196317</v>
       </c>
       <c r="J4">
-        <v>1.029431392262257</v>
+        <v>1.057922980061126</v>
       </c>
       <c r="K4">
-        <v>1.03480011650728</v>
+        <v>1.065444183827377</v>
       </c>
       <c r="L4">
-        <v>0.9973561887171967</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.022307389027789</v>
+        <v>1.070691511793156</v>
       </c>
       <c r="N4">
-        <v>1.030893302916701</v>
+        <v>1.059425352038274</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012252451275642</v>
+        <v>1.041310840327574</v>
       </c>
       <c r="D5">
-        <v>1.026465754198552</v>
+        <v>1.057447341780257</v>
       </c>
       <c r="E5">
-        <v>0.9886345651271934</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.014236239807824</v>
+        <v>1.062891094126106</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048948578913544</v>
+        <v>1.067283683750891</v>
       </c>
       <c r="J5">
-        <v>1.030900910946329</v>
+        <v>1.059285584894869</v>
       </c>
       <c r="K5">
-        <v>1.036038054901419</v>
+        <v>1.066690078583626</v>
       </c>
       <c r="L5">
-        <v>0.998644025727299</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.02394545963404</v>
+        <v>1.072078341088146</v>
       </c>
       <c r="N5">
-        <v>1.03236490848586</v>
+        <v>1.060789891927174</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012580408009279</v>
+        <v>1.04161687025694</v>
       </c>
       <c r="D6">
-        <v>1.026711330942173</v>
+        <v>1.057692773398198</v>
       </c>
       <c r="E6">
-        <v>0.9888909793075374</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.0145502062107</v>
+        <v>1.06316008062087</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049068089991039</v>
+        <v>1.067400303374343</v>
       </c>
       <c r="J6">
-        <v>1.031146058555308</v>
+        <v>1.059513003627709</v>
       </c>
       <c r="K6">
-        <v>1.036244524448409</v>
+        <v>1.066897999095654</v>
       </c>
       <c r="L6">
-        <v>0.9988590586204537</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.024218877737998</v>
+        <v>1.07230984567368</v>
       </c>
       <c r="N6">
-        <v>1.032610404232562</v>
+        <v>1.0610176336207</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010313619307269</v>
+        <v>1.039502522845227</v>
       </c>
       <c r="D7">
-        <v>1.025014037157482</v>
+        <v>1.055997220448387</v>
       </c>
       <c r="E7">
-        <v>0.9871201324836582</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.012381080629468</v>
+        <v>1.061302057055326</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048240817962862</v>
+        <v>1.066593433784109</v>
       </c>
       <c r="J7">
-        <v>1.029451135579743</v>
+        <v>1.05794127968831</v>
       </c>
       <c r="K7">
-        <v>1.034816751534382</v>
+        <v>1.06546091733917</v>
       </c>
       <c r="L7">
-        <v>0.9973734779885363</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.022329386598695</v>
+        <v>1.070710133859199</v>
       </c>
       <c r="N7">
-        <v>1.030913074271961</v>
+        <v>1.059443677653028</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000533075153023</v>
+        <v>1.030403822051565</v>
       </c>
       <c r="D8">
-        <v>1.017693961753613</v>
+        <v>1.048704452418582</v>
       </c>
       <c r="E8">
-        <v>0.9795177360689128</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>1.003047194318277</v>
+        <v>1.053316946092032</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044640647402863</v>
+        <v>1.063092463587078</v>
       </c>
       <c r="J8">
-        <v>1.022125825326825</v>
+        <v>1.051165388400754</v>
       </c>
       <c r="K8">
-        <v>1.028639474557541</v>
+        <v>1.059262758174979</v>
       </c>
       <c r="L8">
-        <v>0.9909824914191846</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.014186047026804</v>
+        <v>1.063820074238941</v>
       </c>
       <c r="N8">
-        <v>1.02357736123826</v>
+        <v>1.052658163822638</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819901384544308</v>
+        <v>1.013265915565135</v>
       </c>
       <c r="D9">
-        <v>1.003837443187922</v>
+        <v>1.034989109410167</v>
       </c>
       <c r="E9">
-        <v>0.9652701331442074</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9854584431790397</v>
+        <v>1.03832404559645</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037700574276023</v>
+        <v>1.056390657042967</v>
       </c>
       <c r="J9">
-        <v>1.008195303327642</v>
+        <v>1.038358762840561</v>
       </c>
       <c r="K9">
-        <v>1.016868565865475</v>
+        <v>1.047538919724681</v>
       </c>
       <c r="L9">
-        <v>0.9789529849550622</v>
+        <v>0.9576541208834082</v>
       </c>
       <c r="M9">
-        <v>0.9987919368418642</v>
+        <v>1.050824503281749</v>
       </c>
       <c r="N9">
-        <v>1.009627056299985</v>
+        <v>1.03983335138521</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9685759059285226</v>
+        <v>1.00096673027277</v>
       </c>
       <c r="D10">
-        <v>0.993838020878183</v>
+        <v>1.025167498259008</v>
       </c>
       <c r="E10">
-        <v>0.9550954506077596</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>0.9728181453155637</v>
+        <v>1.027603770012709</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032607216141977</v>
+        <v>1.051511900641887</v>
       </c>
       <c r="J10">
-        <v>0.9980942530687883</v>
+        <v>1.029142045095896</v>
       </c>
       <c r="K10">
-        <v>1.008319430233563</v>
+        <v>1.039096742708474</v>
       </c>
       <c r="L10">
-        <v>0.9703257322339209</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9876961544510636</v>
+        <v>1.041491896063937</v>
       </c>
       <c r="N10">
-        <v>0.9995116613911568</v>
+        <v>1.030603544844175</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9624717917617482</v>
+        <v>0.9953995958299056</v>
       </c>
       <c r="D11">
-        <v>0.9892962091582168</v>
+        <v>1.020728677626008</v>
       </c>
       <c r="E11">
-        <v>0.9505019984970526</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9670888732575114</v>
+        <v>1.022762537414083</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03027357236498</v>
+        <v>1.049288175001513</v>
       </c>
       <c r="J11">
-        <v>0.9934936406577038</v>
+        <v>1.024965017277901</v>
       </c>
       <c r="K11">
-        <v>1.004422846287793</v>
+        <v>1.035269989968937</v>
       </c>
       <c r="L11">
-        <v>0.9664219041169585</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9826593296940026</v>
+        <v>1.03726758423883</v>
       </c>
       <c r="N11">
-        <v>0.9949045155827512</v>
+        <v>1.026420585167567</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9601554199549874</v>
+        <v>0.9932920748578932</v>
       </c>
       <c r="D12">
-        <v>0.9875742068685236</v>
+        <v>1.019049497805622</v>
       </c>
       <c r="E12">
-        <v>0.9487648784016407</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9649184281839204</v>
+        <v>1.020931678501836</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029385749217485</v>
+        <v>1.048444135723413</v>
       </c>
       <c r="J12">
-        <v>0.9917473296446789</v>
+        <v>1.02338306449839</v>
       </c>
       <c r="K12">
-        <v>1.002943401209881</v>
+        <v>1.033820618622649</v>
       </c>
       <c r="L12">
-        <v>0.9649442035857698</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>0.9807500787411529</v>
+        <v>1.035668555317991</v>
       </c>
       <c r="N12">
-        <v>0.9931557246077829</v>
+        <v>1.024836385833656</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9606545898440352</v>
+        <v>0.9937459976195129</v>
       </c>
       <c r="D13">
-        <v>0.9879452197310745</v>
+        <v>1.019411106308486</v>
       </c>
       <c r="E13">
-        <v>0.9491389425542434</v>
+        <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.9653859803696372</v>
+        <v>1.0213259261342</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029577171532623</v>
+        <v>1.048626025164237</v>
       </c>
       <c r="J13">
-        <v>0.9921236728421574</v>
+        <v>1.023723818067436</v>
       </c>
       <c r="K13">
-        <v>1.0032622486425</v>
+        <v>1.034132816954981</v>
       </c>
       <c r="L13">
-        <v>0.9652624681144394</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.981161415779096</v>
+        <v>1.036012948800023</v>
       </c>
       <c r="N13">
-        <v>0.9935326022557693</v>
+        <v>1.025177623311855</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9622813490674116</v>
+        <v>0.9952262170562117</v>
       </c>
       <c r="D14">
-        <v>0.9891546009529544</v>
+        <v>1.020590511657192</v>
       </c>
       <c r="E14">
-        <v>0.9503590550293897</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9669103517208912</v>
+        <v>1.022611879898111</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030200624084538</v>
+        <v>1.049218783004137</v>
       </c>
       <c r="J14">
-        <v>0.993350074981472</v>
+        <v>1.024834888400135</v>
       </c>
       <c r="K14">
-        <v>1.004301227083291</v>
+        <v>1.035150768376054</v>
       </c>
       <c r="L14">
-        <v>0.9663003357922741</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9825023144555713</v>
+        <v>1.037136033571055</v>
       </c>
       <c r="N14">
-        <v>0.9947607460267918</v>
+        <v>1.026290271491867</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9632770024700559</v>
+        <v>0.9961328688399363</v>
       </c>
       <c r="D15">
-        <v>0.9898950056933526</v>
+        <v>1.02131307456011</v>
       </c>
       <c r="E15">
-        <v>0.9511066240844379</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9678438313786125</v>
+        <v>1.023399791851287</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030581914109036</v>
+        <v>1.049581566028198</v>
       </c>
       <c r="J15">
-        <v>0.9941006318967638</v>
+        <v>1.025515346042574</v>
       </c>
       <c r="K15">
-        <v>1.004937033785173</v>
+        <v>1.035774187756213</v>
       </c>
       <c r="L15">
-        <v>0.9669360604369024</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9833232930575683</v>
+        <v>1.037823959970487</v>
       </c>
       <c r="N15">
-        <v>0.9955123688189934</v>
+        <v>1.026971695462209</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9689744079091831</v>
+        <v>1.001330837499673</v>
       </c>
       <c r="D16">
-        <v>0.9941347229113594</v>
+        <v>1.025457966256675</v>
       </c>
       <c r="E16">
-        <v>0.9553961248621411</v>
+        <v>0.9363637346017257</v>
       </c>
       <c r="F16">
-        <v>0.9731926663749346</v>
+        <v>1.027920647576856</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032759248204359</v>
+        <v>1.051657028392615</v>
       </c>
       <c r="J16">
-        <v>0.9983945257932655</v>
+        <v>1.0294151365062</v>
       </c>
       <c r="K16">
-        <v>1.008573698656351</v>
+        <v>1.039346920770207</v>
       </c>
       <c r="L16">
-        <v>0.9705810773869277</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9880252542137132</v>
+        <v>1.041768190844077</v>
       </c>
       <c r="N16">
-        <v>0.9998123605373446</v>
+        <v>1.030877024075605</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.972466028967456</v>
+        <v>1.004524488198067</v>
       </c>
       <c r="D17">
-        <v>0.9967353582804631</v>
+        <v>1.028006506388198</v>
       </c>
       <c r="E17">
-        <v>0.9580347531813076</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9764767486319652</v>
+        <v>1.030701323371262</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034089555874834</v>
+        <v>1.052928244361894</v>
       </c>
       <c r="J17">
-        <v>1.00102502291725</v>
+        <v>1.031809900497688</v>
       </c>
       <c r="K17">
-        <v>1.010800871650805</v>
+        <v>1.041540675066944</v>
       </c>
       <c r="L17">
-        <v>0.9728208937264813</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9909101919522372</v>
+        <v>1.044191640888159</v>
       </c>
       <c r="N17">
-        <v>1.002446593268968</v>
+        <v>1.033275188906644</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9744744496983299</v>
+        <v>1.006364236667118</v>
       </c>
       <c r="D18">
-        <v>0.9982320429225782</v>
+        <v>1.029475261989812</v>
       </c>
       <c r="E18">
-        <v>0.9595559058114334</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9783678931898065</v>
+        <v>1.032304213478945</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034853263805504</v>
+        <v>1.053659093783625</v>
       </c>
       <c r="J18">
-        <v>1.00253771637724</v>
+        <v>1.033188948290849</v>
       </c>
       <c r="K18">
-        <v>1.012081363550379</v>
+        <v>1.042803896872427</v>
       </c>
       <c r="L18">
-        <v>0.9741112912150369</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>0.9925707729955581</v>
+        <v>1.045587696350294</v>
       </c>
       <c r="N18">
-        <v>1.003961434927179</v>
+        <v>1.034656195105851</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9751546184533613</v>
+        <v>1.006987728145312</v>
       </c>
       <c r="D19">
-        <v>0.9987390315125292</v>
+        <v>1.029973126340926</v>
       </c>
       <c r="E19">
-        <v>0.9600716171948048</v>
+        <v>0.9397594814684966</v>
       </c>
       <c r="F19">
-        <v>0.9790086944674933</v>
+        <v>1.032847605395202</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035111641786827</v>
+        <v>1.053906529764429</v>
       </c>
       <c r="J19">
-        <v>1.003049931367738</v>
+        <v>1.033656222242346</v>
       </c>
       <c r="K19">
-        <v>1.01251490595882</v>
+        <v>1.043231911258393</v>
       </c>
       <c r="L19">
-        <v>0.9745486283075573</v>
+        <v>0.9546352493816591</v>
       </c>
       <c r="M19">
-        <v>0.9931333276460287</v>
+        <v>1.046060814773918</v>
       </c>
       <c r="N19">
-        <v>1.004474377321715</v>
+        <v>1.035124132639956</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9720943573663655</v>
+        <v>1.004184247186848</v>
       </c>
       <c r="D20">
-        <v>0.9964584475351722</v>
+        <v>1.027734926455352</v>
       </c>
       <c r="E20">
-        <v>0.9577535247029849</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.976126948378783</v>
+        <v>1.030404969890231</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033948104122785</v>
+        <v>1.05279296354182</v>
       </c>
       <c r="J20">
-        <v>1.000745055675012</v>
+        <v>1.031554820568818</v>
       </c>
       <c r="K20">
-        <v>1.01056385804941</v>
+        <v>1.041307013134921</v>
       </c>
       <c r="L20">
-        <v>0.9725822588858806</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.9906029803864917</v>
+        <v>1.043933454363495</v>
       </c>
       <c r="N20">
-        <v>1.002166228441133</v>
+        <v>1.033019746735017</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9618037029819152</v>
+        <v>0.9947914526744486</v>
       </c>
       <c r="D21">
-        <v>0.9887994610078973</v>
+        <v>1.020244066786</v>
       </c>
       <c r="E21">
-        <v>0.9500006390356311</v>
+        <v>0.9324872132148893</v>
       </c>
       <c r="F21">
-        <v>0.9664626650786445</v>
+        <v>1.022234121867689</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030017627930132</v>
+        <v>1.049044740456616</v>
       </c>
       <c r="J21">
-        <v>0.9929899930836866</v>
+        <v>1.024508566857284</v>
       </c>
       <c r="K21">
-        <v>1.003996184092489</v>
+        <v>1.034851797694748</v>
       </c>
       <c r="L21">
-        <v>0.9659954935002569</v>
+        <v>0.9488714019981063</v>
       </c>
       <c r="M21">
-        <v>0.9821085420520407</v>
+        <v>1.036806160164756</v>
       </c>
       <c r="N21">
-        <v>0.9944001527714098</v>
+        <v>1.025963486534996</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9550470690771078</v>
+        <v>0.9886544975318176</v>
       </c>
       <c r="D22">
-        <v>0.9837797296846461</v>
+        <v>1.015356902533983</v>
       </c>
       <c r="E22">
-        <v>0.9449456523407144</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>0.9601390396146837</v>
+        <v>1.016906538524753</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027423802093608</v>
+        <v>1.046582866208309</v>
       </c>
       <c r="J22">
-        <v>0.9878954261579838</v>
+        <v>1.019900861119249</v>
       </c>
       <c r="K22">
-        <v>0.9996795100941563</v>
+        <v>1.030630153803932</v>
       </c>
       <c r="L22">
-        <v>0.9616927595664057</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9765437825912355</v>
+        <v>1.032150352442424</v>
       </c>
       <c r="N22">
-        <v>0.9892983509763174</v>
+        <v>1.021349237326302</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9586577694281969</v>
+        <v>0.9919309784737957</v>
       </c>
       <c r="D23">
-        <v>0.9864613061051684</v>
+        <v>1.017965397818684</v>
       </c>
       <c r="E23">
-        <v>0.9476435013308681</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.963516203223961</v>
+        <v>1.019749806581495</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028811108332382</v>
+        <v>1.047898419986745</v>
       </c>
       <c r="J23">
-        <v>0.9906181347655105</v>
+        <v>1.022361216921116</v>
       </c>
       <c r="K23">
-        <v>1.001986668727581</v>
+        <v>1.032884393718267</v>
       </c>
       <c r="L23">
-        <v>0.9639898993286442</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9795162831122535</v>
+        <v>1.034635918042244</v>
       </c>
       <c r="N23">
-        <v>0.9920249261423659</v>
+        <v>1.023813087115615</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.972262386516542</v>
+        <v>1.004338058449248</v>
       </c>
       <c r="D24">
-        <v>0.9965836338426325</v>
+        <v>1.027857696453187</v>
       </c>
       <c r="E24">
-        <v>0.957880654908978</v>
+        <v>0.9381640424011822</v>
       </c>
       <c r="F24">
-        <v>0.9762850831878063</v>
+        <v>1.030538937885879</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034012057770725</v>
+        <v>1.052854123869525</v>
       </c>
       <c r="J24">
-        <v>1.000871627418009</v>
+        <v>1.031670134964822</v>
       </c>
       <c r="K24">
-        <v>1.0106710115041</v>
+        <v>1.041412645290696</v>
       </c>
       <c r="L24">
-        <v>0.9726901371202398</v>
+        <v>0.9533716596442542</v>
       </c>
       <c r="M24">
-        <v>0.9907418642774207</v>
+        <v>1.044050171648722</v>
       </c>
       <c r="N24">
-        <v>1.002292979930523</v>
+        <v>1.033135224890691</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9869554463165322</v>
+        <v>1.017840018102242</v>
       </c>
       <c r="D25">
-        <v>1.007544437164451</v>
+        <v>1.038646634767665</v>
       </c>
       <c r="E25">
-        <v>0.9690643330293284</v>
+        <v>0.9463835801718017</v>
       </c>
       <c r="F25">
-        <v>0.9901548745536186</v>
+        <v>1.042319467793295</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039571684286051</v>
+        <v>1.058191439273588</v>
       </c>
       <c r="J25">
-        <v>1.011929930203429</v>
+        <v>1.041781557383711</v>
       </c>
       <c r="K25">
-        <v>1.020026753605937</v>
+        <v>1.050673235746056</v>
       </c>
       <c r="L25">
-        <v>0.9821626517173486</v>
+        <v>0.9598754494005832</v>
       </c>
       <c r="M25">
-        <v>1.002907970520794</v>
+        <v>1.054294520907983</v>
       </c>
       <c r="N25">
-        <v>1.013366986774303</v>
+        <v>1.04326100668921</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027990804410347</v>
+        <v>1.002868680840874</v>
       </c>
       <c r="D2">
-        <v>1.046771533348208</v>
+        <v>1.019703634614984</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.051202157699226</v>
+        <v>0.9798758704665244</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062156771062009</v>
+        <v>1.044736313663316</v>
       </c>
       <c r="J2">
-        <v>1.049365373568387</v>
+        <v>1.024963927399103</v>
       </c>
       <c r="K2">
-        <v>1.057615567187637</v>
+        <v>1.030895125235546</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.061991438910081</v>
+        <v>0.9916228731374703</v>
       </c>
       <c r="N2">
-        <v>1.050855592762745</v>
+        <v>1.026419493741016</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035046040632566</v>
+        <v>1.007164210984425</v>
       </c>
       <c r="D3">
-        <v>1.052424463709548</v>
+        <v>1.022793256809919</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.057388854983572</v>
+        <v>0.986823095868176</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064884286240303</v>
+        <v>1.046137950933536</v>
       </c>
       <c r="J3">
-        <v>1.054624861695489</v>
+        <v>1.027461459589342</v>
       </c>
       <c r="K3">
-        <v>1.062427785059551</v>
+        <v>1.033142569219405</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.067336544022922</v>
+        <v>0.9976274010605573</v>
       </c>
       <c r="N3">
-        <v>1.056122549966259</v>
+        <v>1.028920572713436</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039477914533497</v>
+        <v>1.009879500345312</v>
       </c>
       <c r="D4">
-        <v>1.055977488108575</v>
+        <v>1.024747765046718</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.061280437434948</v>
+        <v>0.9912046401769473</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066584027196317</v>
+        <v>1.047011450241321</v>
       </c>
       <c r="J4">
-        <v>1.057922980061126</v>
+        <v>1.029033819776885</v>
       </c>
       <c r="K4">
-        <v>1.065444183827377</v>
+        <v>1.03455640684448</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.070691511793156</v>
+        <v>1.001410389497748</v>
       </c>
       <c r="N4">
-        <v>1.059425352038274</v>
+        <v>1.030495165832797</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041310840327574</v>
+        <v>1.011006219056683</v>
       </c>
       <c r="D5">
-        <v>1.057447341780257</v>
+        <v>1.02555911057526</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.062891094126106</v>
+        <v>0.9930207636725703</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067283683750891</v>
+        <v>1.047370880083835</v>
       </c>
       <c r="J5">
-        <v>1.059285584894869</v>
+        <v>1.02968473671747</v>
       </c>
       <c r="K5">
-        <v>1.066690078583626</v>
+        <v>1.035141424082911</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.072078341088146</v>
+        <v>1.002977422804529</v>
       </c>
       <c r="N5">
-        <v>1.060789891927174</v>
+        <v>1.031147007150099</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04161687025694</v>
+        <v>1.011194549127773</v>
       </c>
       <c r="D6">
-        <v>1.057692773398198</v>
+        <v>1.025694743594941</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.06316008062087</v>
+        <v>0.9933242190717965</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067400303374343</v>
+        <v>1.047430779293551</v>
       </c>
       <c r="J6">
-        <v>1.059513003627709</v>
+        <v>1.029793446146184</v>
       </c>
       <c r="K6">
-        <v>1.066897999095654</v>
+        <v>1.035239110929391</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.07230984567368</v>
+        <v>1.003239198591585</v>
       </c>
       <c r="N6">
-        <v>1.0610176336207</v>
+        <v>1.031255870958671</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039502522845227</v>
+        <v>1.009894612981235</v>
       </c>
       <c r="D7">
-        <v>1.055997220448387</v>
+        <v>1.024758646403294</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.061302057055326</v>
+        <v>0.9912290072621042</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066593433784109</v>
+        <v>1.047016283286095</v>
       </c>
       <c r="J7">
-        <v>1.05794127968831</v>
+        <v>1.029042556598477</v>
       </c>
       <c r="K7">
-        <v>1.06546091733917</v>
+        <v>1.034564260250843</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.070710133859199</v>
+        <v>1.0014314184825</v>
       </c>
       <c r="N7">
-        <v>1.059443677653028</v>
+        <v>1.030503915061678</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030403822051565</v>
+        <v>1.004334031504269</v>
       </c>
       <c r="D8">
-        <v>1.048704452418582</v>
+        <v>1.020757267649868</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.053316946092032</v>
+        <v>0.9822481262302968</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063092463587078</v>
+        <v>1.045217067173379</v>
       </c>
       <c r="J8">
-        <v>1.051165388400754</v>
+        <v>1.025817255382923</v>
       </c>
       <c r="K8">
-        <v>1.059262758174979</v>
+        <v>1.031663221804116</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.063820074238941</v>
+        <v>0.9936740510152038</v>
       </c>
       <c r="N8">
-        <v>1.052658163822638</v>
+        <v>1.02727403354845</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013265915565135</v>
+        <v>0.9940157281941937</v>
       </c>
       <c r="D9">
-        <v>1.034989109410167</v>
+        <v>1.013346336384675</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.03832404559645</v>
+        <v>0.9654846233943266</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056390657042967</v>
+        <v>1.041779746032268</v>
       </c>
       <c r="J9">
-        <v>1.038358762840561</v>
+        <v>1.019781590843216</v>
       </c>
       <c r="K9">
-        <v>1.047538919724681</v>
+        <v>1.026226527158031</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834082</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.050824503281749</v>
+        <v>0.9791636638135472</v>
       </c>
       <c r="N9">
-        <v>1.03983335138521</v>
+        <v>1.021229797672797</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00096673027277</v>
+        <v>0.9867447077362737</v>
       </c>
       <c r="D10">
-        <v>1.025167498259008</v>
+        <v>1.008136712382672</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.027603770012709</v>
+        <v>0.9535753053357993</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051511900641887</v>
+        <v>1.039292519262259</v>
       </c>
       <c r="J10">
-        <v>1.029142045095896</v>
+        <v>1.015494288925857</v>
       </c>
       <c r="K10">
-        <v>1.039096742708474</v>
+        <v>1.02236059378528</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.041491896063937</v>
+        <v>0.9688366069280392</v>
       </c>
       <c r="N10">
-        <v>1.030603544844175</v>
+        <v>1.016936407294954</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9953995958299056</v>
+        <v>0.9834926492900464</v>
       </c>
       <c r="D11">
-        <v>1.020728677626008</v>
+        <v>1.005810364547948</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.022762537414083</v>
+        <v>0.9482181367660691</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049288175001513</v>
+        <v>1.038165038665924</v>
       </c>
       <c r="J11">
-        <v>1.024965017277901</v>
+        <v>1.013568651080759</v>
       </c>
       <c r="K11">
-        <v>1.035269989968937</v>
+        <v>1.02062353150598</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.03726758423883</v>
+        <v>0.9641874298344671</v>
       </c>
       <c r="N11">
-        <v>1.026420585167567</v>
+        <v>1.015008034823242</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9932920748578932</v>
+        <v>0.9822681151166851</v>
       </c>
       <c r="D12">
-        <v>1.019049497805622</v>
+        <v>1.004935022023959</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.020931678501836</v>
+        <v>0.9461956096268485</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048444135723413</v>
+        <v>1.037738269671409</v>
       </c>
       <c r="J12">
-        <v>1.02338306449839</v>
+        <v>1.012842351631773</v>
       </c>
       <c r="K12">
-        <v>1.033820618622649</v>
+        <v>1.01996828163004</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252508</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.035668555317991</v>
+        <v>0.962431689993632</v>
       </c>
       <c r="N12">
-        <v>1.024836385833656</v>
+        <v>1.014280703945732</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9937459976195129</v>
+        <v>0.9825315489950294</v>
       </c>
       <c r="D13">
-        <v>1.019411106308486</v>
+        <v>1.005123305137575</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.0213259261342</v>
+        <v>0.946630969229511</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048626025164237</v>
+        <v>1.037830180450593</v>
       </c>
       <c r="J13">
-        <v>1.023723818067436</v>
+        <v>1.012998655398465</v>
       </c>
       <c r="K13">
-        <v>1.034132816954981</v>
+        <v>1.020109298122828</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>1.036012948800023</v>
+        <v>0.9628096440305908</v>
       </c>
       <c r="N13">
-        <v>1.025177623311855</v>
+        <v>1.014437229681701</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9952262170562117</v>
+        <v>0.9833917731538333</v>
       </c>
       <c r="D14">
-        <v>1.020590511657192</v>
+        <v>1.005738241497838</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.022611879898111</v>
+        <v>0.9480516354764166</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049218783004137</v>
+        <v>1.038129926809247</v>
       </c>
       <c r="J14">
-        <v>1.024834888400135</v>
+        <v>1.013508843872362</v>
       </c>
       <c r="K14">
-        <v>1.035150768376054</v>
+        <v>1.020569576270753</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.037136033571055</v>
+        <v>0.9640429012742706</v>
       </c>
       <c r="N14">
-        <v>1.026290271491867</v>
+        <v>1.01494814268175</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9961328688399363</v>
+        <v>0.9839195578041785</v>
       </c>
       <c r="D15">
-        <v>1.02131307456011</v>
+        <v>1.006115615577187</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.023399791851287</v>
+        <v>0.9489225496089289</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049581566028198</v>
+        <v>1.038313541820795</v>
       </c>
       <c r="J15">
-        <v>1.025515346042574</v>
+        <v>1.013821706000785</v>
       </c>
       <c r="K15">
-        <v>1.035774187756213</v>
+        <v>1.020851822750422</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9494987508782939</v>
       </c>
       <c r="M15">
-        <v>1.037823959970487</v>
+        <v>0.9647988630062965</v>
       </c>
       <c r="N15">
-        <v>1.026971695462209</v>
+        <v>1.015261449110281</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001330837499673</v>
+        <v>0.9869582687733033</v>
       </c>
       <c r="D16">
-        <v>1.025457966256675</v>
+        <v>1.008289565251736</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017257</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="F16">
-        <v>1.027920647576856</v>
+        <v>0.9539264116338313</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051657028392615</v>
+        <v>1.039366250429695</v>
       </c>
       <c r="J16">
-        <v>1.0294151365062</v>
+        <v>1.015620576284417</v>
       </c>
       <c r="K16">
-        <v>1.039346920770207</v>
+        <v>1.022474501985905</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175716</v>
       </c>
       <c r="M16">
-        <v>1.041768190844077</v>
+        <v>0.9691412386865432</v>
       </c>
       <c r="N16">
-        <v>1.030877024075605</v>
+        <v>1.017062873996049</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004524488198067</v>
+        <v>0.9888359407737281</v>
       </c>
       <c r="D17">
-        <v>1.028006506388198</v>
+        <v>1.009633909184147</v>
       </c>
       <c r="E17">
         <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.030701323371262</v>
+        <v>0.957009857293059</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052928244361894</v>
+        <v>1.040012806438819</v>
       </c>
       <c r="J17">
-        <v>1.031809900497688</v>
+        <v>1.016730002205733</v>
       </c>
       <c r="K17">
-        <v>1.041540675066944</v>
+        <v>1.023475103616471</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.044191640888159</v>
+        <v>0.971816122117573</v>
       </c>
       <c r="N17">
-        <v>1.033275188906644</v>
+        <v>1.018173875429426</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006364236667118</v>
+        <v>0.9899212258232528</v>
       </c>
       <c r="D18">
-        <v>1.029475261989812</v>
+        <v>1.010411281397956</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.032304213478945</v>
+        <v>0.9587892329626274</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053659093783625</v>
+        <v>1.040385087542886</v>
       </c>
       <c r="J18">
-        <v>1.033188948290849</v>
+        <v>1.017370479946573</v>
       </c>
       <c r="K18">
-        <v>1.042803896872427</v>
+        <v>1.024052690338942</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.045587696350294</v>
+        <v>0.9733593687938631</v>
       </c>
       <c r="N18">
-        <v>1.034656195105851</v>
+        <v>1.018815262722123</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006987728145312</v>
+        <v>0.9902896247388572</v>
       </c>
       <c r="D19">
-        <v>1.029973126340926</v>
+        <v>1.010675216805143</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.032847605395202</v>
+        <v>0.9593927790914144</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053906529764429</v>
+        <v>1.040511215275757</v>
       </c>
       <c r="J19">
-        <v>1.033656222242346</v>
+        <v>1.017587759744368</v>
       </c>
       <c r="K19">
-        <v>1.043231911258393</v>
+        <v>1.024248622606967</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
+        <v>0.9546352493816594</v>
       </c>
       <c r="M19">
-        <v>1.046060814773918</v>
+        <v>0.9738827599147032</v>
       </c>
       <c r="N19">
-        <v>1.035124132639956</v>
+        <v>1.019032851082152</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004184247186848</v>
+        <v>0.988635518313899</v>
       </c>
       <c r="D20">
-        <v>1.027734926455352</v>
+        <v>1.009490377510729</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.030404969890231</v>
+        <v>0.9566810305491703</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05279296354182</v>
+        <v>1.039943940818048</v>
       </c>
       <c r="J20">
-        <v>1.031554820568818</v>
+        <v>1.016611661634004</v>
       </c>
       <c r="K20">
-        <v>1.041307013134921</v>
+        <v>1.023368377834616</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.043933454363495</v>
+        <v>0.9715309023517247</v>
       </c>
       <c r="N20">
-        <v>1.033019746735017</v>
+        <v>1.018055366800511</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9947914526744486</v>
+        <v>0.9831389246334575</v>
       </c>
       <c r="D21">
-        <v>1.020244066786</v>
+        <v>1.005557473555258</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148893</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.022234121867689</v>
+        <v>0.9476342073754944</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049044740456616</v>
+        <v>1.038041882345743</v>
       </c>
       <c r="J21">
-        <v>1.024508566857284</v>
+        <v>1.013358916016374</v>
       </c>
       <c r="K21">
-        <v>1.034851797694748</v>
+        <v>1.020434317316152</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981063</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.036806160164756</v>
+        <v>0.9636805521227619</v>
       </c>
       <c r="N21">
-        <v>1.025963486534996</v>
+        <v>1.014798001911009</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9886544975318176</v>
+        <v>0.979586535242829</v>
       </c>
       <c r="D22">
-        <v>1.015356902533983</v>
+        <v>1.00301934913556</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>1.016906538524753</v>
+        <v>0.9417558167703595</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046582866208309</v>
+        <v>1.036799636947588</v>
       </c>
       <c r="J22">
-        <v>1.019900861119249</v>
+        <v>1.011249598548647</v>
       </c>
       <c r="K22">
-        <v>1.030630153803932</v>
+        <v>1.018531228492828</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>1.032150352442424</v>
+        <v>0.9585766805938313</v>
       </c>
       <c r="N22">
-        <v>1.021349237326302</v>
+        <v>1.012685688970536</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9919309784737957</v>
+        <v>0.9814792268340102</v>
       </c>
       <c r="D23">
-        <v>1.017965397818684</v>
+        <v>1.004371279253943</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>1.019749806581495</v>
+        <v>0.9448910234727718</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047898419986745</v>
+        <v>1.037462706718116</v>
       </c>
       <c r="J23">
-        <v>1.022361216921116</v>
+        <v>1.012374100127927</v>
       </c>
       <c r="K23">
-        <v>1.032884393718267</v>
+        <v>1.019545818375257</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.034635918042244</v>
+        <v>0.961299054546022</v>
       </c>
       <c r="N23">
-        <v>1.023813087115615</v>
+        <v>1.013811787471042</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004338058449248</v>
+        <v>0.9887261112072345</v>
       </c>
       <c r="D24">
-        <v>1.027857696453187</v>
+        <v>1.009555254142376</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011822</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>1.030538937885879</v>
+        <v>0.9568296721797934</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052854123869525</v>
+        <v>1.039975073168954</v>
       </c>
       <c r="J24">
-        <v>1.031670134964822</v>
+        <v>1.016665155091517</v>
       </c>
       <c r="K24">
-        <v>1.041412645290696</v>
+        <v>1.023416621268999</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442542</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.044050171648722</v>
+        <v>0.9716598331615873</v>
       </c>
       <c r="N24">
-        <v>1.033135224890691</v>
+        <v>1.018108936224871</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017840018102242</v>
+        <v>0.9967490382657533</v>
       </c>
       <c r="D25">
-        <v>1.038646634767665</v>
+        <v>1.015307541324346</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.042319467793295</v>
+        <v>0.9699395409106735</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058191439273588</v>
+        <v>1.042701589486198</v>
       </c>
       <c r="J25">
-        <v>1.041781557383711</v>
+        <v>1.021386307754511</v>
       </c>
       <c r="K25">
-        <v>1.050673235746056</v>
+        <v>1.027672785592247</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.054294520907983</v>
+        <v>0.9830231487417193</v>
       </c>
       <c r="N25">
-        <v>1.04326100668921</v>
+        <v>1.022836793466169</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002868680840874</v>
+        <v>1.026692233669576</v>
       </c>
       <c r="D2">
-        <v>1.019703634614984</v>
+        <v>1.030942046220045</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9798758704665244</v>
+        <v>1.025213079140802</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044736313663316</v>
+        <v>1.03404718741774</v>
       </c>
       <c r="J2">
-        <v>1.024963927399103</v>
+        <v>1.031854259123576</v>
       </c>
       <c r="K2">
-        <v>1.030895125235546</v>
+        <v>1.033751598896578</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9916228731374703</v>
+        <v>1.028039309087408</v>
       </c>
       <c r="N2">
-        <v>1.026419493741016</v>
+        <v>1.033319610526876</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007164210984425</v>
+        <v>1.027558117530428</v>
       </c>
       <c r="D3">
-        <v>1.022793256809919</v>
+        <v>1.031576227721089</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.986823095868176</v>
+        <v>1.026712086702378</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046137950933536</v>
+        <v>1.034258300101165</v>
       </c>
       <c r="J3">
-        <v>1.027461459589342</v>
+        <v>1.032360441212386</v>
       </c>
       <c r="K3">
-        <v>1.033142569219405</v>
+        <v>1.034194708397107</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9976274010605573</v>
+        <v>1.029343694225454</v>
       </c>
       <c r="N3">
-        <v>1.028920572713436</v>
+        <v>1.033826511452306</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009879500345312</v>
+        <v>1.028118130816821</v>
       </c>
       <c r="D4">
-        <v>1.024747765046718</v>
+        <v>1.031986280638885</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9912046401769473</v>
+        <v>1.027681797559175</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047011450241321</v>
+        <v>1.034393345810776</v>
       </c>
       <c r="J4">
-        <v>1.029033819776885</v>
+        <v>1.032687072150172</v>
       </c>
       <c r="K4">
-        <v>1.03455640684448</v>
+        <v>1.034480438178519</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.001410389497748</v>
+        <v>1.030186981760471</v>
       </c>
       <c r="N4">
-        <v>1.030495165832797</v>
+        <v>1.034153606243489</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011006219056683</v>
+        <v>1.028353495237646</v>
       </c>
       <c r="D5">
-        <v>1.02555911057526</v>
+        <v>1.032158593198752</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.9930207636725703</v>
+        <v>1.028089409353528</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047370880083835</v>
+        <v>1.034449745773814</v>
       </c>
       <c r="J5">
-        <v>1.02968473671747</v>
+        <v>1.032824171595647</v>
       </c>
       <c r="K5">
-        <v>1.035141424082911</v>
+        <v>1.03460032128279</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.002977422804529</v>
+        <v>1.030541327282527</v>
       </c>
       <c r="N5">
-        <v>1.031147007150099</v>
+        <v>1.034290900385902</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011194549127773</v>
+        <v>1.028393010133092</v>
       </c>
       <c r="D6">
-        <v>1.025694743594941</v>
+        <v>1.032187520894553</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9933242190717965</v>
+        <v>1.028157846094656</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047430779293551</v>
+        <v>1.034459193682437</v>
       </c>
       <c r="J6">
-        <v>1.029793446146184</v>
+        <v>1.032847178515028</v>
       </c>
       <c r="K6">
-        <v>1.035239110929391</v>
+        <v>1.034620436236588</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.003239198591585</v>
+        <v>1.030600813447744</v>
       </c>
       <c r="N6">
-        <v>1.031255870958671</v>
+        <v>1.034313939977747</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.009894612981235</v>
+        <v>1.028121276024015</v>
       </c>
       <c r="D7">
-        <v>1.024758646403294</v>
+        <v>1.031988583378166</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9912290072621042</v>
+        <v>1.027687244297005</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047016283286095</v>
+        <v>1.034394100896719</v>
       </c>
       <c r="J7">
-        <v>1.029042556598477</v>
+        <v>1.032688904929319</v>
       </c>
       <c r="K7">
-        <v>1.034564260250843</v>
+        <v>1.034482040996777</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.0014314184825</v>
+        <v>1.030191717215934</v>
       </c>
       <c r="N7">
-        <v>1.030503915061678</v>
+        <v>1.034155441625392</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004334031504269</v>
+        <v>1.026984919282208</v>
       </c>
       <c r="D8">
-        <v>1.020757267649868</v>
+        <v>1.031156433552329</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9822481262302968</v>
+        <v>1.025719729703804</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045217067173379</v>
+        <v>1.034118856483683</v>
       </c>
       <c r="J8">
-        <v>1.025817255382923</v>
+        <v>1.032025512594444</v>
       </c>
       <c r="K8">
-        <v>1.031663221804116</v>
+        <v>1.033901554996677</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9936740510152038</v>
+        <v>1.028480287046571</v>
       </c>
       <c r="N8">
-        <v>1.02727403354845</v>
+        <v>1.033491107197309</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9940157281941937</v>
+        <v>1.024980441183017</v>
       </c>
       <c r="D9">
-        <v>1.013346336384675</v>
+        <v>1.02968777360115</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9654846233943266</v>
+        <v>1.022250619913363</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041779746032268</v>
+        <v>1.033621913811165</v>
       </c>
       <c r="J9">
-        <v>1.019781590843216</v>
+        <v>1.030849619916807</v>
       </c>
       <c r="K9">
-        <v>1.026226527158031</v>
+        <v>1.032871081107615</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9791636638135472</v>
+        <v>1.025458712099425</v>
       </c>
       <c r="N9">
-        <v>1.021229797672797</v>
+        <v>1.032313544617193</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9867447077362737</v>
+        <v>1.023642735050104</v>
       </c>
       <c r="D10">
-        <v>1.008136712382672</v>
+        <v>1.028707154704019</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9535753053357993</v>
+        <v>1.019936182879611</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039292519262259</v>
+        <v>1.033282609073022</v>
       </c>
       <c r="J10">
-        <v>1.015494288925857</v>
+        <v>1.03006104691607</v>
       </c>
       <c r="K10">
-        <v>1.02236059378528</v>
+        <v>1.032179013727712</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9688366069280392</v>
+        <v>1.023440174803127</v>
       </c>
       <c r="N10">
-        <v>1.016936407294954</v>
+        <v>1.031523851752345</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9834926492900464</v>
+        <v>1.023063164647392</v>
       </c>
       <c r="D11">
-        <v>1.005810364547948</v>
+        <v>1.028282184534859</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9482181367660691</v>
+        <v>1.018933539194082</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038165038665924</v>
+        <v>1.033133788090838</v>
       </c>
       <c r="J11">
-        <v>1.013568651080759</v>
+        <v>1.029718484047478</v>
       </c>
       <c r="K11">
-        <v>1.02062353150598</v>
+        <v>1.031878137120331</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9641874298344671</v>
+        <v>1.022565085848699</v>
       </c>
       <c r="N11">
-        <v>1.015008034823242</v>
+        <v>1.031180802405186</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9822681151166851</v>
+        <v>1.022847835985572</v>
       </c>
       <c r="D12">
-        <v>1.004935022023959</v>
+        <v>1.028124278766424</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9461956096268485</v>
+        <v>1.018561035373784</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037738269671409</v>
+        <v>1.033078223980558</v>
       </c>
       <c r="J12">
-        <v>1.012842351631773</v>
+        <v>1.02959107471594</v>
       </c>
       <c r="K12">
-        <v>1.01996828163004</v>
+        <v>1.031766196932012</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.962431689993632</v>
+        <v>1.02223987644732</v>
       </c>
       <c r="N12">
-        <v>1.014280703945732</v>
+        <v>1.031053212137783</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9825315489950294</v>
+        <v>1.022894026997386</v>
       </c>
       <c r="D13">
-        <v>1.005123305137575</v>
+        <v>1.028158152476606</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.946630969229511</v>
+        <v>1.018640942296839</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037830180450593</v>
+        <v>1.033090155583708</v>
       </c>
       <c r="J13">
-        <v>1.012998655398465</v>
+        <v>1.029618411974504</v>
       </c>
       <c r="K13">
-        <v>1.020109298122828</v>
+        <v>1.031790216681485</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9628096440305908</v>
+        <v>1.022309642394163</v>
       </c>
       <c r="N13">
-        <v>1.014437229681701</v>
+        <v>1.03108058821839</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9833917731538333</v>
+        <v>1.023045366542003</v>
       </c>
       <c r="D14">
-        <v>1.005738241497838</v>
+        <v>1.028269133071504</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9480516354764166</v>
+        <v>1.01890274952186</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038129926809247</v>
+        <v>1.033129200965357</v>
       </c>
       <c r="J14">
-        <v>1.013508843872362</v>
+        <v>1.029707955744214</v>
       </c>
       <c r="K14">
-        <v>1.020569576270753</v>
+        <v>1.031868887805736</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9640429012742706</v>
+        <v>1.022538207278905</v>
       </c>
       <c r="N14">
-        <v>1.01494814268175</v>
+        <v>1.031170259150524</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9839195578041785</v>
+        <v>1.023138605147295</v>
       </c>
       <c r="D15">
-        <v>1.006115615577187</v>
+        <v>1.028337504880919</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9489225496089289</v>
+        <v>1.019064047180615</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038313541820795</v>
+        <v>1.033153220300641</v>
       </c>
       <c r="J15">
-        <v>1.013821706000785</v>
+        <v>1.029763104584926</v>
       </c>
       <c r="K15">
-        <v>1.020851822750422</v>
+        <v>1.031917335671272</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9647988630062965</v>
+        <v>1.022679011984331</v>
       </c>
       <c r="N15">
-        <v>1.015261449110281</v>
+        <v>1.031225486308916</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9869582687733033</v>
+        <v>1.023681192165845</v>
       </c>
       <c r="D16">
-        <v>1.008289565251736</v>
+        <v>1.028735351124356</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9539264116338313</v>
+        <v>1.020002714505992</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039366250429695</v>
+        <v>1.033292445809505</v>
       </c>
       <c r="J16">
-        <v>1.015620576284417</v>
+        <v>1.030083758381564</v>
       </c>
       <c r="K16">
-        <v>1.022474501985905</v>
+        <v>1.032198956498523</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9691412386865432</v>
+        <v>1.023498229064691</v>
       </c>
       <c r="N16">
-        <v>1.017062873996049</v>
+        <v>1.031546595470724</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9888359407737281</v>
+        <v>1.024021452955038</v>
       </c>
       <c r="D17">
-        <v>1.009633909184147</v>
+        <v>1.028984814694942</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.957009857293059</v>
+        <v>1.020591384006291</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040012806438819</v>
+        <v>1.033379269702269</v>
       </c>
       <c r="J17">
-        <v>1.016730002205733</v>
+        <v>1.030284599957418</v>
       </c>
       <c r="K17">
-        <v>1.023475103616471</v>
+        <v>1.032375286763008</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.971816122117573</v>
+        <v>1.02401181807073</v>
       </c>
       <c r="N17">
-        <v>1.018173875429426</v>
+        <v>1.031747722264653</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9899212258232528</v>
+        <v>1.024219889019002</v>
       </c>
       <c r="D18">
-        <v>1.010411281397956</v>
+        <v>1.02913028821967</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9587892329626274</v>
+        <v>1.020934699304118</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040385087542886</v>
+        <v>1.033429729304476</v>
       </c>
       <c r="J18">
-        <v>1.017370479946573</v>
+        <v>1.030401640789912</v>
       </c>
       <c r="K18">
-        <v>1.024052690338942</v>
+        <v>1.032478020771928</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9733593687938631</v>
+        <v>1.024311284960166</v>
       </c>
       <c r="N18">
-        <v>1.018815262722123</v>
+        <v>1.031864929308554</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9902896247388572</v>
+        <v>1.024287545113615</v>
       </c>
       <c r="D19">
-        <v>1.010675216805143</v>
+        <v>1.029179885089075</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9593927790914144</v>
+        <v>1.021051753374173</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040511215275757</v>
+        <v>1.033446903631425</v>
       </c>
       <c r="J19">
-        <v>1.017587759744368</v>
+        <v>1.030441530601575</v>
       </c>
       <c r="K19">
-        <v>1.024248622606967</v>
+        <v>1.032513030658857</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9738827599147032</v>
+        <v>1.02441337846386</v>
       </c>
       <c r="N19">
-        <v>1.019032851082152</v>
+        <v>1.031904875768325</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.988635518313899</v>
+        <v>1.02398494953386</v>
       </c>
       <c r="D20">
-        <v>1.009490377510729</v>
+        <v>1.028958053164423</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9566810305491703</v>
+        <v>1.020528230103055</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039943940818048</v>
+        <v>1.033369973279978</v>
       </c>
       <c r="J20">
-        <v>1.016611661634004</v>
+        <v>1.030263062590328</v>
       </c>
       <c r="K20">
-        <v>1.023368377834616</v>
+        <v>1.032356380238673</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9715309023517247</v>
+        <v>1.023956725300444</v>
       </c>
       <c r="N20">
-        <v>1.018055366800511</v>
+        <v>1.031726154312031</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9831389246334575</v>
+        <v>1.023000802210577</v>
       </c>
       <c r="D21">
-        <v>1.005557473555258</v>
+        <v>1.028236453509343</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9476342073754944</v>
+        <v>1.018825655998953</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038041882345743</v>
+        <v>1.033117710950897</v>
       </c>
       <c r="J21">
-        <v>1.013358916016374</v>
+        <v>1.029681591925705</v>
       </c>
       <c r="K21">
-        <v>1.020434317316152</v>
+        <v>1.031845726122276</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9636805521227619</v>
+        <v>1.022470905138898</v>
       </c>
       <c r="N21">
-        <v>1.014798001911009</v>
+        <v>1.031143857892369</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.979586535242829</v>
+        <v>1.022381738018816</v>
       </c>
       <c r="D22">
-        <v>1.00301934913556</v>
+        <v>1.027782449201242</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9417558167703595</v>
+        <v>1.017754729974748</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036799636947588</v>
+        <v>1.032957452564394</v>
       </c>
       <c r="J22">
-        <v>1.011249598548647</v>
+        <v>1.029315036416127</v>
       </c>
       <c r="K22">
-        <v>1.018531228492828</v>
+        <v>1.031523609172294</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9585766805938313</v>
+        <v>1.021535769039107</v>
       </c>
       <c r="N22">
-        <v>1.012685688970536</v>
+        <v>1.030776781831922</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9814792268340102</v>
+        <v>1.022709943348324</v>
       </c>
       <c r="D23">
-        <v>1.004371279253943</v>
+        <v>1.028023154307434</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9448910234727718</v>
+        <v>1.018322492672622</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037462706718116</v>
+        <v>1.033042565051714</v>
       </c>
       <c r="J23">
-        <v>1.012374100127927</v>
+        <v>1.029509445643441</v>
       </c>
       <c r="K23">
-        <v>1.019545818375257</v>
+        <v>1.031694468811495</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.961299054546022</v>
+        <v>1.022031593278839</v>
       </c>
       <c r="N23">
-        <v>1.013811787471042</v>
+        <v>1.030971467142639</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9887261112072345</v>
+        <v>1.024001443958249</v>
       </c>
       <c r="D24">
-        <v>1.009555254142376</v>
+        <v>1.028970145654249</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9568296721797934</v>
+        <v>1.020556766773256</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039975073168954</v>
+        <v>1.033374174499368</v>
       </c>
       <c r="J24">
-        <v>1.016665155091517</v>
+        <v>1.030272794728877</v>
       </c>
       <c r="K24">
-        <v>1.023416621268999</v>
+        <v>1.032364923642923</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9716598331615873</v>
+        <v>1.023981619662461</v>
       </c>
       <c r="N24">
-        <v>1.018108936224871</v>
+        <v>1.031735900271333</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9967490382657533</v>
+        <v>1.025498891757682</v>
       </c>
       <c r="D25">
-        <v>1.015307541324346</v>
+        <v>1.030067726684354</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9699395409106735</v>
+        <v>1.023147745996588</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042701589486198</v>
+        <v>1.033751797819524</v>
       </c>
       <c r="J25">
-        <v>1.021386307754511</v>
+        <v>1.031154435091608</v>
       </c>
       <c r="K25">
-        <v>1.027672785592247</v>
+        <v>1.033138380520923</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9830231487417193</v>
+        <v>1.026240575916266</v>
       </c>
       <c r="N25">
-        <v>1.022836793466169</v>
+        <v>1.032618792664505</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026692233669576</v>
+        <v>1.002868680840875</v>
       </c>
       <c r="D2">
-        <v>1.030942046220045</v>
+        <v>1.019703634614984</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.025213079140802</v>
+        <v>0.9798758704665251</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03404718741774</v>
+        <v>1.044736313663316</v>
       </c>
       <c r="J2">
-        <v>1.031854259123576</v>
+        <v>1.024963927399103</v>
       </c>
       <c r="K2">
-        <v>1.033751598896578</v>
+        <v>1.030895125235546</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.028039309087408</v>
+        <v>0.9916228731374711</v>
       </c>
       <c r="N2">
-        <v>1.033319610526876</v>
+        <v>1.026419493741016</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027558117530428</v>
+        <v>1.007164210984424</v>
       </c>
       <c r="D3">
-        <v>1.031576227721089</v>
+        <v>1.022793256809918</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.026712086702378</v>
+        <v>0.9868230958681752</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034258300101165</v>
+        <v>1.046137950933535</v>
       </c>
       <c r="J3">
-        <v>1.032360441212386</v>
+        <v>1.027461459589341</v>
       </c>
       <c r="K3">
-        <v>1.034194708397107</v>
+        <v>1.033142569219404</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.029343694225454</v>
+        <v>0.9976274010605564</v>
       </c>
       <c r="N3">
-        <v>1.033826511452306</v>
+        <v>1.028920572713435</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028118130816821</v>
+        <v>1.009879500345312</v>
       </c>
       <c r="D4">
-        <v>1.031986280638885</v>
+        <v>1.024747765046718</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.027681797559175</v>
+        <v>0.9912046401769475</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034393345810776</v>
+        <v>1.047011450241321</v>
       </c>
       <c r="J4">
-        <v>1.032687072150172</v>
+        <v>1.029033819776885</v>
       </c>
       <c r="K4">
-        <v>1.034480438178519</v>
+        <v>1.034556406844481</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.030186981760471</v>
+        <v>1.001410389497748</v>
       </c>
       <c r="N4">
-        <v>1.034153606243489</v>
+        <v>1.030495165832797</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028353495237646</v>
+        <v>1.011006219056683</v>
       </c>
       <c r="D5">
-        <v>1.032158593198752</v>
+        <v>1.02555911057526</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.028089409353528</v>
+        <v>0.9930207636725709</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034449745773814</v>
+        <v>1.047370880083835</v>
       </c>
       <c r="J5">
-        <v>1.032824171595647</v>
+        <v>1.029684736717471</v>
       </c>
       <c r="K5">
-        <v>1.03460032128279</v>
+        <v>1.035141424082911</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.030541327282527</v>
+        <v>1.002977422804529</v>
       </c>
       <c r="N5">
-        <v>1.034290900385902</v>
+        <v>1.031147007150099</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028393010133092</v>
+        <v>1.011194549127773</v>
       </c>
       <c r="D6">
-        <v>1.032187520894553</v>
+        <v>1.025694743594941</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.028157846094656</v>
+        <v>0.9933242190717968</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034459193682437</v>
+        <v>1.047430779293551</v>
       </c>
       <c r="J6">
-        <v>1.032847178515028</v>
+        <v>1.029793446146184</v>
       </c>
       <c r="K6">
-        <v>1.034620436236588</v>
+        <v>1.035239110929391</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.030600813447744</v>
+        <v>1.003239198591586</v>
       </c>
       <c r="N6">
-        <v>1.034313939977747</v>
+        <v>1.031255870958671</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028121276024015</v>
+        <v>1.009894612981235</v>
       </c>
       <c r="D7">
-        <v>1.031988583378166</v>
+        <v>1.024758646403293</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.027687244297005</v>
+        <v>0.9912290072621035</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034394100896719</v>
+        <v>1.047016283286095</v>
       </c>
       <c r="J7">
-        <v>1.032688904929319</v>
+        <v>1.029042556598477</v>
       </c>
       <c r="K7">
-        <v>1.034482040996777</v>
+        <v>1.034564260250843</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.030191717215934</v>
+        <v>1.001431418482499</v>
       </c>
       <c r="N7">
-        <v>1.034155441625392</v>
+        <v>1.030503915061677</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026984919282208</v>
+        <v>1.004334031504268</v>
       </c>
       <c r="D8">
-        <v>1.031156433552329</v>
+        <v>1.020757267649868</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.025719729703804</v>
+        <v>0.982248126230296</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034118856483683</v>
+        <v>1.045217067173378</v>
       </c>
       <c r="J8">
-        <v>1.032025512594444</v>
+        <v>1.025817255382922</v>
       </c>
       <c r="K8">
-        <v>1.033901554996677</v>
+        <v>1.031663221804116</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.028480287046571</v>
+        <v>0.9936740510152031</v>
       </c>
       <c r="N8">
-        <v>1.033491107197309</v>
+        <v>1.02727403354845</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024980441183017</v>
+        <v>0.9940157281941935</v>
       </c>
       <c r="D9">
-        <v>1.02968777360115</v>
+        <v>1.013346336384675</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.022250619913363</v>
+        <v>0.9654846233943265</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033621913811165</v>
+        <v>1.041779746032268</v>
       </c>
       <c r="J9">
-        <v>1.030849619916807</v>
+        <v>1.019781590843216</v>
       </c>
       <c r="K9">
-        <v>1.032871081107615</v>
+        <v>1.026226527158031</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.025458712099425</v>
+        <v>0.9791636638135468</v>
       </c>
       <c r="N9">
-        <v>1.032313544617193</v>
+        <v>1.021229797672797</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023642735050104</v>
+        <v>0.9867447077362737</v>
       </c>
       <c r="D10">
-        <v>1.028707154704019</v>
+        <v>1.008136712382672</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.019936182879611</v>
+        <v>0.9535753053357994</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033282609073022</v>
+        <v>1.039292519262259</v>
       </c>
       <c r="J10">
-        <v>1.03006104691607</v>
+        <v>1.015494288925857</v>
       </c>
       <c r="K10">
-        <v>1.032179013727712</v>
+        <v>1.02236059378528</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.023440174803127</v>
+        <v>0.9688366069280394</v>
       </c>
       <c r="N10">
-        <v>1.031523851752345</v>
+        <v>1.016936407294954</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023063164647392</v>
+        <v>0.9834926492900463</v>
       </c>
       <c r="D11">
-        <v>1.028282184534859</v>
+        <v>1.005810364547948</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.018933539194082</v>
+        <v>0.9482181367660685</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033133788090838</v>
+        <v>1.038165038665924</v>
       </c>
       <c r="J11">
-        <v>1.029718484047478</v>
+        <v>1.013568651080758</v>
       </c>
       <c r="K11">
-        <v>1.031878137120331</v>
+        <v>1.02062353150598</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.022565085848699</v>
+        <v>0.9641874298344666</v>
       </c>
       <c r="N11">
-        <v>1.031180802405186</v>
+        <v>1.015008034823242</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022847835985572</v>
+        <v>0.9822681151166852</v>
       </c>
       <c r="D12">
-        <v>1.028124278766424</v>
+        <v>1.004935022023959</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.018561035373784</v>
+        <v>0.946195609626849</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033078223980558</v>
+        <v>1.037738269671409</v>
       </c>
       <c r="J12">
-        <v>1.02959107471594</v>
+        <v>1.012842351631774</v>
       </c>
       <c r="K12">
-        <v>1.031766196932012</v>
+        <v>1.019968281630041</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.02223987644732</v>
+        <v>0.9624316899936328</v>
       </c>
       <c r="N12">
-        <v>1.031053212137783</v>
+        <v>1.014280703945732</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022894026997386</v>
+        <v>0.982531548995029</v>
       </c>
       <c r="D13">
-        <v>1.028158152476606</v>
+        <v>1.005123305137575</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.018640942296839</v>
+        <v>0.9466309692295098</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033090155583708</v>
+        <v>1.037830180450593</v>
       </c>
       <c r="J13">
-        <v>1.029618411974504</v>
+        <v>1.012998655398465</v>
       </c>
       <c r="K13">
-        <v>1.031790216681485</v>
+        <v>1.020109298122827</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.022309642394163</v>
+        <v>0.9628096440305898</v>
       </c>
       <c r="N13">
-        <v>1.03108058821839</v>
+        <v>1.0144372296817</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023045366542003</v>
+        <v>0.9833917731538326</v>
       </c>
       <c r="D14">
-        <v>1.028269133071504</v>
+        <v>1.005738241497837</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.01890274952186</v>
+        <v>0.9480516354764158</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033129200965357</v>
+        <v>1.038129926809247</v>
       </c>
       <c r="J14">
-        <v>1.029707955744214</v>
+        <v>1.013508843872361</v>
       </c>
       <c r="K14">
-        <v>1.031868887805736</v>
+        <v>1.020569576270753</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.022538207278905</v>
+        <v>0.9640429012742699</v>
       </c>
       <c r="N14">
-        <v>1.031170259150524</v>
+        <v>1.014948142681749</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023138605147295</v>
+        <v>0.9839195578041785</v>
       </c>
       <c r="D15">
-        <v>1.028337504880919</v>
+        <v>1.006115615577187</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.019064047180615</v>
+        <v>0.948922549608929</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033153220300641</v>
+        <v>1.038313541820795</v>
       </c>
       <c r="J15">
-        <v>1.029763104584926</v>
+        <v>1.013821706000785</v>
       </c>
       <c r="K15">
-        <v>1.031917335671272</v>
+        <v>1.020851822750422</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.022679011984331</v>
+        <v>0.9647988630062961</v>
       </c>
       <c r="N15">
-        <v>1.031225486308916</v>
+        <v>1.015261449110281</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023681192165845</v>
+        <v>0.9869582687733034</v>
       </c>
       <c r="D16">
-        <v>1.028735351124356</v>
+        <v>1.008289565251736</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.020002714505992</v>
+        <v>0.9539264116338314</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033292445809505</v>
+        <v>1.039366250429695</v>
       </c>
       <c r="J16">
-        <v>1.030083758381564</v>
+        <v>1.015620576284417</v>
       </c>
       <c r="K16">
-        <v>1.032198956498523</v>
+        <v>1.022474501985905</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.023498229064691</v>
+        <v>0.9691412386865432</v>
       </c>
       <c r="N16">
-        <v>1.031546595470724</v>
+        <v>1.017062873996049</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024021452955038</v>
+        <v>0.9888359407737281</v>
       </c>
       <c r="D17">
-        <v>1.028984814694942</v>
+        <v>1.009633909184147</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.020591384006291</v>
+        <v>0.957009857293059</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033379269702269</v>
+        <v>1.04001280643882</v>
       </c>
       <c r="J17">
-        <v>1.030284599957418</v>
+        <v>1.016730002205733</v>
       </c>
       <c r="K17">
-        <v>1.032375286763008</v>
+        <v>1.023475103616471</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.02401181807073</v>
+        <v>0.971816122117573</v>
       </c>
       <c r="N17">
-        <v>1.031747722264653</v>
+        <v>1.018173875429426</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024219889019002</v>
+        <v>0.9899212258232536</v>
       </c>
       <c r="D18">
-        <v>1.02913028821967</v>
+        <v>1.010411281397956</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.020934699304118</v>
+        <v>0.9587892329626281</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033429729304476</v>
+        <v>1.040385087542886</v>
       </c>
       <c r="J18">
-        <v>1.030401640789912</v>
+        <v>1.017370479946574</v>
       </c>
       <c r="K18">
-        <v>1.032478020771928</v>
+        <v>1.024052690338943</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.024311284960166</v>
+        <v>0.9733593687938638</v>
       </c>
       <c r="N18">
-        <v>1.031864929308554</v>
+        <v>1.018815262722123</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024287545113615</v>
+        <v>0.990289624738856</v>
       </c>
       <c r="D19">
-        <v>1.029179885089075</v>
+        <v>1.010675216805142</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.021051753374173</v>
+        <v>0.9593927790914132</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033446903631425</v>
+        <v>1.040511215275757</v>
       </c>
       <c r="J19">
-        <v>1.030441530601575</v>
+        <v>1.017587759744367</v>
       </c>
       <c r="K19">
-        <v>1.032513030658857</v>
+        <v>1.024248622606966</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.02441337846386</v>
+        <v>0.973882759914702</v>
       </c>
       <c r="N19">
-        <v>1.031904875768325</v>
+        <v>1.019032851082151</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02398494953386</v>
+        <v>0.9886355183138987</v>
       </c>
       <c r="D20">
-        <v>1.028958053164423</v>
+        <v>1.009490377510729</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.020528230103055</v>
+        <v>0.9566810305491699</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033369973279978</v>
+        <v>1.039943940818048</v>
       </c>
       <c r="J20">
-        <v>1.030263062590328</v>
+        <v>1.016611661634003</v>
       </c>
       <c r="K20">
-        <v>1.032356380238673</v>
+        <v>1.023368377834616</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.023956725300444</v>
+        <v>0.9715309023517243</v>
       </c>
       <c r="N20">
-        <v>1.031726154312031</v>
+        <v>1.018055366800511</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023000802210577</v>
+        <v>0.9831389246334583</v>
       </c>
       <c r="D21">
-        <v>1.028236453509343</v>
+        <v>1.005557473555258</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.018825655998953</v>
+        <v>0.9476342073754949</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033117710950897</v>
+        <v>1.038041882345743</v>
       </c>
       <c r="J21">
-        <v>1.029681591925705</v>
+        <v>1.013358916016374</v>
       </c>
       <c r="K21">
-        <v>1.031845726122276</v>
+        <v>1.020434317316153</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.022470905138898</v>
+        <v>0.9636805521227622</v>
       </c>
       <c r="N21">
-        <v>1.031143857892369</v>
+        <v>1.01479800191101</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022381738018816</v>
+        <v>0.979586535242829</v>
       </c>
       <c r="D22">
-        <v>1.027782449201242</v>
+        <v>1.00301934913556</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.017754729974748</v>
+        <v>0.9417558167703594</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032957452564394</v>
+        <v>1.036799636947588</v>
       </c>
       <c r="J22">
-        <v>1.029315036416127</v>
+        <v>1.011249598548647</v>
       </c>
       <c r="K22">
-        <v>1.031523609172294</v>
+        <v>1.018531228492828</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.021535769039107</v>
+        <v>0.9585766805938313</v>
       </c>
       <c r="N22">
-        <v>1.030776781831922</v>
+        <v>1.012685688970536</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022709943348324</v>
+        <v>0.9814792268340097</v>
       </c>
       <c r="D23">
-        <v>1.028023154307434</v>
+        <v>1.004371279253942</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.018322492672622</v>
+        <v>0.944891023472771</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033042565051714</v>
+        <v>1.037462706718115</v>
       </c>
       <c r="J23">
-        <v>1.029509445643441</v>
+        <v>1.012374100127927</v>
       </c>
       <c r="K23">
-        <v>1.031694468811495</v>
+        <v>1.019545818375257</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.022031593278839</v>
+        <v>0.9612990545460214</v>
       </c>
       <c r="N23">
-        <v>1.030971467142639</v>
+        <v>1.01381178747104</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024001443958249</v>
+        <v>0.9887261112072343</v>
       </c>
       <c r="D24">
-        <v>1.028970145654249</v>
+        <v>1.009555254142376</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.020556766773256</v>
+        <v>0.9568296721797929</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033374174499368</v>
+        <v>1.039975073168954</v>
       </c>
       <c r="J24">
-        <v>1.030272794728877</v>
+        <v>1.016665155091517</v>
       </c>
       <c r="K24">
-        <v>1.032364923642923</v>
+        <v>1.023416621268999</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.023981619662461</v>
+        <v>0.9716598331615869</v>
       </c>
       <c r="N24">
-        <v>1.031735900271333</v>
+        <v>1.01810893622487</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025498891757682</v>
+        <v>0.996749038265753</v>
       </c>
       <c r="D25">
-        <v>1.030067726684354</v>
+        <v>1.015307541324346</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.023147745996588</v>
+        <v>0.9699395409106729</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033751797819524</v>
+        <v>1.042701589486198</v>
       </c>
       <c r="J25">
-        <v>1.031154435091608</v>
+        <v>1.02138630775451</v>
       </c>
       <c r="K25">
-        <v>1.033138380520923</v>
+        <v>1.027672785592246</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.026240575916266</v>
+        <v>0.9830231487417187</v>
       </c>
       <c r="N25">
-        <v>1.032618792664505</v>
+        <v>1.022836793466169</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002868680840875</v>
+        <v>1.015782040390954</v>
       </c>
       <c r="D2">
-        <v>1.019703634614984</v>
+        <v>1.036498113219376</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9798758704665251</v>
+        <v>1.04163172344278</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044736313663316</v>
+        <v>1.055457703753825</v>
       </c>
       <c r="J2">
-        <v>1.024963927399103</v>
+        <v>1.0375007462943</v>
       </c>
       <c r="K2">
-        <v>1.030895125235546</v>
+        <v>1.047471352554673</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9916228731374711</v>
+        <v>1.052540001646286</v>
       </c>
       <c r="N2">
-        <v>1.026419493741016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016436377979125</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.050154214016498</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044636623904664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007164210984424</v>
+        <v>1.018825149326928</v>
       </c>
       <c r="D3">
-        <v>1.022793256809918</v>
+        <v>1.038519395729646</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9868230958681752</v>
+        <v>1.043810388318292</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046137950933535</v>
+        <v>1.056182083523801</v>
       </c>
       <c r="J3">
-        <v>1.027461459589341</v>
+        <v>1.038815453422141</v>
       </c>
       <c r="K3">
-        <v>1.033142569219404</v>
+        <v>1.048682040395057</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9976274010605564</v>
+        <v>1.053911791417507</v>
       </c>
       <c r="N3">
-        <v>1.028920572713435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016872033930244</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.051239878566794</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.045490026269125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009879500345312</v>
+        <v>1.020763394561507</v>
       </c>
       <c r="D4">
-        <v>1.024747765046718</v>
+        <v>1.039810422054229</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9912046401769475</v>
+        <v>1.045203777774524</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047011450241321</v>
+        <v>1.056634850098798</v>
       </c>
       <c r="J4">
-        <v>1.029033819776885</v>
+        <v>1.039650481034095</v>
       </c>
       <c r="K4">
-        <v>1.034556406844481</v>
+        <v>1.049450987877866</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.001410389497748</v>
+        <v>1.054785607111293</v>
       </c>
       <c r="N4">
-        <v>1.030495165832797</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017148857105511</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.051931434675965</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.046034616623301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011006219056683</v>
+        <v>1.021573564831663</v>
       </c>
       <c r="D5">
-        <v>1.02555911057526</v>
+        <v>1.040352741924414</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9930207636725709</v>
+        <v>1.045788216179634</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047370880083835</v>
+        <v>1.056823413921137</v>
       </c>
       <c r="J5">
-        <v>1.029684736717471</v>
+        <v>1.040000322007491</v>
       </c>
       <c r="K5">
-        <v>1.035141424082911</v>
+        <v>1.049774348906621</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.002977422804529</v>
+        <v>1.055152173555774</v>
       </c>
       <c r="N5">
-        <v>1.031147007150099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017265116365986</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.052221542876351</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046270366285465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011194549127773</v>
+        <v>1.021712270124775</v>
       </c>
       <c r="D6">
-        <v>1.025694743594941</v>
+        <v>1.040447870514875</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9933242190717968</v>
+        <v>1.04588915588904</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047430779293551</v>
+        <v>1.056857286552059</v>
       </c>
       <c r="J6">
-        <v>1.029793446146184</v>
+        <v>1.040061867537022</v>
       </c>
       <c r="K6">
-        <v>1.035239110929391</v>
+        <v>1.04983270012816</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.003239198591586</v>
+        <v>1.055216533484782</v>
       </c>
       <c r="N6">
-        <v>1.031255870958671</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017285878228784</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.052272478632276</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046320296038332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009894612981235</v>
+        <v>1.020782536453988</v>
       </c>
       <c r="D7">
-        <v>1.024758646403293</v>
+        <v>1.039829192820582</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9912290072621035</v>
+        <v>1.045219720715426</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047016283286095</v>
+        <v>1.056643892672211</v>
       </c>
       <c r="J7">
-        <v>1.029042556598477</v>
+        <v>1.039663257754301</v>
       </c>
       <c r="K7">
-        <v>1.034564260250843</v>
+        <v>1.049466704626708</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.001431418482499</v>
+        <v>1.054798548739579</v>
       </c>
       <c r="N7">
-        <v>1.030503915061677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017153934699649</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.051941676947858</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.046065672492967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004334031504268</v>
+        <v>1.016827203734245</v>
       </c>
       <c r="D8">
-        <v>1.020757267649868</v>
+        <v>1.037198884976526</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.982248126230296</v>
+        <v>1.04238142925272</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045217067173378</v>
+        <v>1.055713825354578</v>
       </c>
       <c r="J8">
-        <v>1.025817255382922</v>
+        <v>1.037958295494831</v>
       </c>
       <c r="K8">
-        <v>1.031663221804116</v>
+        <v>1.047897489458361</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9936740510152031</v>
+        <v>1.053016361324608</v>
       </c>
       <c r="N8">
-        <v>1.02727403354845</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01658904267494</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.050531215705717</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044960649597894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9940157281941935</v>
+        <v>1.009599814419352</v>
       </c>
       <c r="D9">
-        <v>1.013346336384675</v>
+        <v>1.032412973314195</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9654846233943265</v>
+        <v>1.037238291238808</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041779746032268</v>
+        <v>1.053940584832676</v>
       </c>
       <c r="J9">
-        <v>1.019781590843216</v>
+        <v>1.034818074039445</v>
       </c>
       <c r="K9">
-        <v>1.026226527158031</v>
+        <v>1.045001184705108</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.9791636638135468</v>
+        <v>1.049754772380851</v>
       </c>
       <c r="N9">
-        <v>1.021229797672797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015548183851064</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.047949917546326</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.042909659805667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9867447077362737</v>
+        <v>1.004646206577769</v>
       </c>
       <c r="D10">
-        <v>1.008136712382672</v>
+        <v>1.02917608795255</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9535753053357994</v>
+        <v>1.033818282019444</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039292519262259</v>
+        <v>1.052703773365466</v>
       </c>
       <c r="J10">
-        <v>1.015494288925857</v>
+        <v>1.032676688809803</v>
       </c>
       <c r="K10">
-        <v>1.02236059378528</v>
+        <v>1.043037810298357</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9688366069280394</v>
+        <v>1.04760265193222</v>
       </c>
       <c r="N10">
-        <v>1.016936407294954</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014843001645608</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.046297628837912</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.041538131141794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9834926492900463</v>
+        <v>1.002763897089744</v>
       </c>
       <c r="D11">
-        <v>1.005810364547948</v>
+        <v>1.028112646899585</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9482181367660685</v>
+        <v>1.033095397832456</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038165038665924</v>
+        <v>1.052384677756883</v>
       </c>
       <c r="J11">
-        <v>1.013568651080758</v>
+        <v>1.032022145034179</v>
       </c>
       <c r="K11">
-        <v>1.02062353150598</v>
+        <v>1.042523184369602</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9641874298344666</v>
+        <v>1.0474190544727</v>
       </c>
       <c r="N11">
-        <v>1.015008034823242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014658283246384</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.046584498091067</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.041206848120685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9822681151166852</v>
+        <v>1.002150354894937</v>
       </c>
       <c r="D12">
-        <v>1.004935022023959</v>
+        <v>1.027823021009308</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.946195609626849</v>
+        <v>1.033090032947093</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037738269671409</v>
+        <v>1.052335333525398</v>
       </c>
       <c r="J12">
-        <v>1.012842351631774</v>
+        <v>1.031863985835726</v>
       </c>
       <c r="K12">
-        <v>1.019968281630041</v>
+        <v>1.042435907620425</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9624316899936328</v>
+        <v>1.047609600299352</v>
       </c>
       <c r="N12">
-        <v>1.014280703945732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014628540290546</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.04705882714693</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.041145141594903</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.982531548995029</v>
+        <v>1.002485059908699</v>
       </c>
       <c r="D13">
-        <v>1.005123305137575</v>
+        <v>1.028126795716381</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.9466309692295098</v>
+        <v>1.033659636587831</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037830180450593</v>
+        <v>1.052505268939707</v>
       </c>
       <c r="J13">
-        <v>1.012998655398465</v>
+        <v>1.032092380843541</v>
       </c>
       <c r="K13">
-        <v>1.020109298122827</v>
+        <v>1.04269197226932</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>0.9628096440305898</v>
+        <v>1.048127217759006</v>
       </c>
       <c r="N13">
-        <v>1.0144372296817</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014722416556637</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.047742675250821</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.041323712998613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9833917731538326</v>
+        <v>1.003149262614188</v>
       </c>
       <c r="D14">
-        <v>1.005738241497837</v>
+        <v>1.028608858961954</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.9480516354764158</v>
+        <v>1.034318515105414</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038129926809247</v>
+        <v>1.052723334368517</v>
       </c>
       <c r="J14">
-        <v>1.013508843872361</v>
+        <v>1.032427080646055</v>
       </c>
       <c r="K14">
-        <v>1.020569576270753</v>
+        <v>1.043026984370015</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.9640429012742699</v>
+        <v>1.04863717032814</v>
       </c>
       <c r="N14">
-        <v>1.014948142681749</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014843978813503</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04831796132492</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.041561986468121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9839195578041785</v>
+        <v>1.003523054813199</v>
       </c>
       <c r="D15">
-        <v>1.006115615577187</v>
+        <v>1.02886425674638</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>0.948922549608929</v>
+        <v>1.034619645281095</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038313541820795</v>
+        <v>1.052829931843433</v>
       </c>
       <c r="J15">
-        <v>1.013821706000785</v>
+        <v>1.03259979492383</v>
       </c>
       <c r="K15">
-        <v>1.020851822750422</v>
+        <v>1.043192596509409</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782941</v>
+        <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>0.9647988630062961</v>
+        <v>1.04884846964084</v>
       </c>
       <c r="N15">
-        <v>1.015261449110281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014903363465148</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.048522283166668</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.041684899597187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9869582687733034</v>
+        <v>1.005559201379246</v>
       </c>
       <c r="D16">
-        <v>1.008289565251736</v>
+        <v>1.030186391811556</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9539264116338314</v>
+        <v>1.035993423651255</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039366250429695</v>
+        <v>1.053342630779724</v>
       </c>
       <c r="J16">
-        <v>1.015620576284417</v>
+        <v>1.033477892938596</v>
       </c>
       <c r="K16">
-        <v>1.022474501985905</v>
+        <v>1.043996060705328</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9691412386865432</v>
+        <v>1.049706994528891</v>
       </c>
       <c r="N16">
-        <v>1.017062873996049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015189897846593</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.049162380425145</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042256111064504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9888359407737281</v>
+        <v>1.006775517687059</v>
       </c>
       <c r="D17">
-        <v>1.009633909184147</v>
+        <v>1.030949581285566</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.957009857293059</v>
+        <v>1.036698225254497</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04001280643882</v>
+        <v>1.053619210250467</v>
       </c>
       <c r="J17">
-        <v>1.016730002205733</v>
+        <v>1.033975789867184</v>
       </c>
       <c r="K17">
-        <v>1.023475103616471</v>
+        <v>1.044435873856744</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068056</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.971816122117573</v>
+        <v>1.050092007622922</v>
       </c>
       <c r="N17">
-        <v>1.018173875429426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015345868565424</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.049338496230338</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.042569638799671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9899212258232536</v>
+        <v>1.007386449771379</v>
       </c>
       <c r="D18">
-        <v>1.010411281397956</v>
+        <v>1.03127791264219</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9587892329626281</v>
+        <v>1.036845170375378</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040385087542886</v>
+        <v>1.053703670743919</v>
       </c>
       <c r="J18">
-        <v>1.017370479946574</v>
+        <v>1.034173281212976</v>
       </c>
       <c r="K18">
-        <v>1.024052690338943</v>
+        <v>1.044577739283517</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9733593687938638</v>
+        <v>1.050056835703215</v>
       </c>
       <c r="N18">
-        <v>1.018815262722123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.015395622952886</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.049074720979192</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.04265840234802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.990289624738856</v>
+        <v>1.007444751552801</v>
       </c>
       <c r="D19">
-        <v>1.010675216805142</v>
+        <v>1.03121310689605</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9593927790914132</v>
+        <v>1.036480317646164</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040511215275757</v>
+        <v>1.053614944258968</v>
       </c>
       <c r="J19">
-        <v>1.017587759744367</v>
+        <v>1.034096424594835</v>
       </c>
       <c r="K19">
-        <v>1.024248622606966</v>
+        <v>1.044452191716727</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.973882759914702</v>
+        <v>1.049636392026526</v>
       </c>
       <c r="N19">
-        <v>1.019032851082151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015349463024831</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.048419439643736</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042575979065396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9886355183138987</v>
+        <v>1.005948882340383</v>
       </c>
       <c r="D20">
-        <v>1.009490377510729</v>
+        <v>1.030041092770646</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9566810305491699</v>
+        <v>1.034724366911985</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039943940818048</v>
+        <v>1.053043674501873</v>
       </c>
       <c r="J20">
-        <v>1.016611661634003</v>
+        <v>1.033252395059153</v>
       </c>
       <c r="K20">
-        <v>1.023368377834616</v>
+        <v>1.043575502318218</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9715309023517243</v>
+        <v>1.048182926362119</v>
       </c>
       <c r="N20">
-        <v>1.018055366800511</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015035042782978</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.046746399935572</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041960021594579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9831389246334583</v>
+        <v>1.002177675621887</v>
       </c>
       <c r="D21">
-        <v>1.005557473555258</v>
+        <v>1.027550441476212</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9476342073754949</v>
+        <v>1.032020585658907</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038041882345743</v>
+        <v>1.052053935987168</v>
       </c>
       <c r="J21">
-        <v>1.013358916016374</v>
+        <v>1.031584630429205</v>
       </c>
       <c r="K21">
-        <v>1.020434317316153</v>
+        <v>1.042028008130324</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9636805521227622</v>
+        <v>1.04641969281879</v>
       </c>
       <c r="N21">
-        <v>1.01479800191101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014479894215043</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.045310447879439</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.040869096748732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.979586535242829</v>
+        <v>0.9997770607423775</v>
       </c>
       <c r="D22">
-        <v>1.00301934913556</v>
+        <v>1.025974507807299</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9417558167703594</v>
+        <v>1.030340938422646</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036799636947588</v>
+        <v>1.051421446036709</v>
       </c>
       <c r="J22">
-        <v>1.011249598548647</v>
+        <v>1.030527041819765</v>
       </c>
       <c r="K22">
-        <v>1.018531228492828</v>
+        <v>1.041048388164538</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9585766805938313</v>
+        <v>1.045334381316099</v>
       </c>
       <c r="N22">
-        <v>1.012685688970536</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.014128845123028</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.044451501772198</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.040163073643306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9814792268340097</v>
+        <v>1.001046261613479</v>
       </c>
       <c r="D23">
-        <v>1.004371279253942</v>
+        <v>1.026802109333181</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.944891023472771</v>
+        <v>1.031226333196628</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037462706718115</v>
+        <v>1.051752964168754</v>
       </c>
       <c r="J23">
-        <v>1.012374100127927</v>
+        <v>1.031082554455899</v>
       </c>
       <c r="K23">
-        <v>1.019545818375257</v>
+        <v>1.041559709744505</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9612990545460214</v>
+        <v>1.045904477893676</v>
       </c>
       <c r="N23">
-        <v>1.01381178747104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.014312375148005</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.044902692394578</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.040515037738313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9887261112072343</v>
+        <v>1.005968863389667</v>
       </c>
       <c r="D24">
-        <v>1.009555254142376</v>
+        <v>1.030030370204132</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>0.9568296721797929</v>
+        <v>1.034678879469376</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039975073168954</v>
+        <v>1.053027047067763</v>
       </c>
       <c r="J24">
-        <v>1.016665155091517</v>
+        <v>1.033239067152338</v>
       </c>
       <c r="K24">
-        <v>1.023416621268999</v>
+        <v>1.043549873208031</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>0.9716598331615869</v>
+        <v>1.048123186348176</v>
       </c>
       <c r="N24">
-        <v>1.01810893622487</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015026479751582</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.04665863863578</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.041914717764342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.996749038265753</v>
+        <v>1.011511326678852</v>
       </c>
       <c r="D25">
-        <v>1.015307541324346</v>
+        <v>1.033684175151348</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>0.9699395409106729</v>
+        <v>1.038596228389968</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042701589486198</v>
+        <v>1.054423970717319</v>
       </c>
       <c r="J25">
-        <v>1.02138630775451</v>
+        <v>1.035657403424016</v>
       </c>
       <c r="K25">
-        <v>1.027672785592246</v>
+        <v>1.045781159954581</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>0.9830231487417187</v>
+        <v>1.050623540021862</v>
       </c>
       <c r="N25">
-        <v>1.022836793466169</v>
+        <v>1.015827674072447</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.04863748155498</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043489490544939</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015782040390954</v>
+        <v>1.014789667457707</v>
       </c>
       <c r="D2">
-        <v>1.036498113219376</v>
+        <v>1.034852933521</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.04163172344278</v>
+        <v>1.040499628186609</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055457703753825</v>
+        <v>1.054575420360384</v>
       </c>
       <c r="J2">
-        <v>1.0375007462943</v>
+        <v>1.036536844565171</v>
       </c>
       <c r="K2">
-        <v>1.047471352554673</v>
+        <v>1.04584716149121</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.052540001646286</v>
+        <v>1.051422163276679</v>
       </c>
       <c r="N2">
-        <v>1.016436377979125</v>
+        <v>1.016917535001108</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.050154214016498</v>
+        <v>1.049269531015056</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044636623904664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043496903646056</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024236645482499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018825149326928</v>
+        <v>1.017738359897071</v>
       </c>
       <c r="D3">
-        <v>1.038519395729646</v>
+        <v>1.03674805273212</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.043810388318292</v>
+        <v>1.042588699987672</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056182083523801</v>
+        <v>1.055226201478621</v>
       </c>
       <c r="J3">
-        <v>1.038815453422141</v>
+        <v>1.037756868404913</v>
       </c>
       <c r="K3">
-        <v>1.048682040395057</v>
+        <v>1.046931372894297</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.053911791417507</v>
+        <v>1.052704175567763</v>
       </c>
       <c r="N3">
-        <v>1.016872033930244</v>
+        <v>1.017238462120624</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.051239878566794</v>
+        <v>1.050284144946373</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045490026269125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044260604785841</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024426427387947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020763394561507</v>
+        <v>1.019616904322351</v>
       </c>
       <c r="D4">
-        <v>1.039810422054229</v>
+        <v>1.037959014548899</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.045203777774524</v>
+        <v>1.043925305011334</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056634850098798</v>
+        <v>1.055632183878377</v>
       </c>
       <c r="J4">
-        <v>1.039650481034095</v>
+        <v>1.03853177926563</v>
       </c>
       <c r="K4">
-        <v>1.049450987877866</v>
+        <v>1.047619916074661</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.054785607111293</v>
+        <v>1.053520990258789</v>
       </c>
       <c r="N4">
-        <v>1.017148857105511</v>
+        <v>1.017442409946056</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.051931434675965</v>
+        <v>1.050930590108033</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046034616623301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044748427654169</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024544646809785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021573564831663</v>
+        <v>1.02040221634698</v>
       </c>
       <c r="D5">
-        <v>1.040352741924414</v>
+        <v>1.038467984410238</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.045788216179634</v>
+        <v>1.04448609916437</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056823413921137</v>
+        <v>1.055801232268761</v>
       </c>
       <c r="J5">
-        <v>1.040000322007491</v>
+        <v>1.038856535880102</v>
       </c>
       <c r="K5">
-        <v>1.049774348906621</v>
+        <v>1.047909754074374</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.055152173555774</v>
+        <v>1.053863800171666</v>
       </c>
       <c r="N5">
-        <v>1.017265116365986</v>
+        <v>1.017528102802138</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.052221542876351</v>
+        <v>1.051201897267504</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046270366285465</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044961185867482</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024594304619336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021712270124775</v>
+        <v>1.020536667536511</v>
       </c>
       <c r="D6">
-        <v>1.040447870514875</v>
+        <v>1.038557465228649</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.04588915588904</v>
+        <v>1.044583026394565</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.056857286552059</v>
+        <v>1.055831787290553</v>
       </c>
       <c r="J6">
-        <v>1.040061867537022</v>
+        <v>1.03891378846439</v>
       </c>
       <c r="K6">
-        <v>1.04983270012816</v>
+        <v>1.047962427274608</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.055216533484782</v>
+        <v>1.05392412806031</v>
       </c>
       <c r="N6">
-        <v>1.017285878228784</v>
+        <v>1.017543447007589</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.052272478632276</v>
+        <v>1.051249642049684</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046320296038332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045007969656636</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024603848166849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020782536453988</v>
+        <v>1.01964222105538</v>
       </c>
       <c r="D7">
-        <v>1.039829192820582</v>
+        <v>1.037981826017023</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.045219720715426</v>
+        <v>1.043944720372304</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056643892672211</v>
+        <v>1.055644318227677</v>
       </c>
       <c r="J7">
-        <v>1.039663257754301</v>
+        <v>1.038550569482702</v>
       </c>
       <c r="K7">
-        <v>1.049466704626708</v>
+        <v>1.047639621395314</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.054798548739579</v>
+        <v>1.053537361510247</v>
       </c>
       <c r="N7">
-        <v>1.017153934699649</v>
+        <v>1.017473724778274</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051941676947858</v>
+        <v>1.050943546671799</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046065672492967</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044784302292237</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024550107051547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016827203734245</v>
+        <v>1.015823013682136</v>
       </c>
       <c r="D8">
-        <v>1.037198884976526</v>
+        <v>1.03552479159345</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.04238142925272</v>
+        <v>1.041230676525156</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055713825354578</v>
+        <v>1.05481697405194</v>
       </c>
       <c r="J8">
-        <v>1.037958295494831</v>
+        <v>1.036981972787022</v>
       </c>
       <c r="K8">
-        <v>1.047897489458361</v>
+        <v>1.046244133477958</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.053016361324608</v>
+        <v>1.051879678593616</v>
       </c>
       <c r="N8">
-        <v>1.01658904267494</v>
+        <v>1.017113567541798</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050531215705717</v>
+        <v>1.049631619288927</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044960649597894</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043802575666523</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024310190513464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009599814419352</v>
+        <v>1.008825508118217</v>
       </c>
       <c r="D9">
-        <v>1.032412973314195</v>
+        <v>1.031042089497445</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.037238291238808</v>
+        <v>1.036303621010714</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053940584832676</v>
+        <v>1.05322046952946</v>
       </c>
       <c r="J9">
-        <v>1.034818074039445</v>
+        <v>1.034070418490734</v>
       </c>
       <c r="K9">
-        <v>1.045001184705108</v>
+        <v>1.043650835477391</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.049754772380851</v>
+        <v>1.048833930100326</v>
       </c>
       <c r="N9">
-        <v>1.015548183851064</v>
+        <v>1.01635690876088</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047949917546326</v>
+        <v>1.047221139694422</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042909659805667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041965540362888</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023841961314622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004646206577769</v>
+        <v>1.004059149279221</v>
       </c>
       <c r="D10">
-        <v>1.02917608795255</v>
+        <v>1.028032101188106</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.033818282019444</v>
+        <v>1.033048495355887</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.052703773365466</v>
+        <v>1.052118620083329</v>
       </c>
       <c r="J10">
-        <v>1.032676688809803</v>
+        <v>1.032112638783749</v>
       </c>
       <c r="K10">
-        <v>1.043037810298357</v>
+        <v>1.041913024015623</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.04760265193222</v>
+        <v>1.046845630240185</v>
       </c>
       <c r="N10">
-        <v>1.014843001645608</v>
+        <v>1.015961187553263</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.046297628837912</v>
+        <v>1.045698538127443</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041538131141794</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04075516937022</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02352404053469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002763897089744</v>
+        <v>1.00227342218952</v>
       </c>
       <c r="D11">
-        <v>1.028112646899585</v>
+        <v>1.027062720922533</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.033095397832456</v>
+        <v>1.032398222333069</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052384677756883</v>
+        <v>1.05185994585231</v>
       </c>
       <c r="J11">
-        <v>1.032022145034179</v>
+        <v>1.031551929022487</v>
       </c>
       <c r="K11">
-        <v>1.042523184369602</v>
+        <v>1.041491704615271</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.0474190544727</v>
+        <v>1.046733969839212</v>
       </c>
       <c r="N11">
-        <v>1.014658283246384</v>
+        <v>1.016061628348536</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.046584498091067</v>
+        <v>1.046042604683147</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041206848120685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040493070760464</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023484403449175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002150354894937</v>
+        <v>1.001689401247171</v>
       </c>
       <c r="D12">
-        <v>1.027823021009308</v>
+        <v>1.026798288725436</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.033090032947093</v>
+        <v>1.032413307807021</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052335333525398</v>
+        <v>1.051827774020745</v>
       </c>
       <c r="J12">
-        <v>1.031863985835726</v>
+        <v>1.031422434273606</v>
       </c>
       <c r="K12">
-        <v>1.042435907620425</v>
+        <v>1.041429475694908</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.047609600299352</v>
+        <v>1.046944796044678</v>
       </c>
       <c r="N12">
-        <v>1.014628540290546</v>
+        <v>1.016142951577722</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.04705882714693</v>
+        <v>1.046533150312883</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041145141594903</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040449074414499</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023496484346996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002485059908699</v>
+        <v>1.001994573635494</v>
       </c>
       <c r="D13">
-        <v>1.028126795716381</v>
+        <v>1.02706948834992</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.033659636587831</v>
+        <v>1.032959207638718</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052505268939707</v>
+        <v>1.051978025639864</v>
       </c>
       <c r="J13">
-        <v>1.032092380843541</v>
+        <v>1.031622445548955</v>
       </c>
       <c r="K13">
-        <v>1.04269197226932</v>
+        <v>1.041653470386759</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.048127217759006</v>
+        <v>1.047439068980164</v>
       </c>
       <c r="N13">
-        <v>1.014722416556637</v>
+        <v>1.016184840834138</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.047742675250821</v>
+        <v>1.047198674170813</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041323712998613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040604726165634</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023554922094739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003149262614188</v>
+        <v>1.002612233951165</v>
       </c>
       <c r="D14">
-        <v>1.028608858961954</v>
+        <v>1.027503348490617</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.034318515105414</v>
+        <v>1.033582124577234</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052723334368517</v>
+        <v>1.052166116205312</v>
       </c>
       <c r="J14">
-        <v>1.032427080646055</v>
+        <v>1.031912242645659</v>
       </c>
       <c r="K14">
-        <v>1.043026984370015</v>
+        <v>1.041940899020139</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.04863717032814</v>
+        <v>1.04791352887647</v>
       </c>
       <c r="N14">
-        <v>1.014843978813503</v>
+        <v>1.016197623325217</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04831796132492</v>
+        <v>1.047745978722052</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041561986468121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040809491912029</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023617134266956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003523054813199</v>
+        <v>1.002961974304328</v>
       </c>
       <c r="D15">
-        <v>1.02886425674638</v>
+        <v>1.02773430283633</v>
       </c>
       <c r="E15">
         <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.034619645281095</v>
+        <v>1.033864856287284</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052829931843433</v>
+        <v>1.052257355184264</v>
       </c>
       <c r="J15">
-        <v>1.03259979492383</v>
+        <v>1.032061702274272</v>
       </c>
       <c r="K15">
-        <v>1.043192596509409</v>
+        <v>1.042082349956451</v>
       </c>
       <c r="L15">
         <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.04884846964084</v>
+        <v>1.048106649958888</v>
       </c>
       <c r="N15">
-        <v>1.014903363465148</v>
+        <v>1.016197148229393</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.048522283166668</v>
+        <v>1.047935947412505</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041684899597187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040915891960131</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023645283588132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005559201379246</v>
+        <v>1.004880824537472</v>
       </c>
       <c r="D16">
-        <v>1.030186391811556</v>
+        <v>1.028936601973553</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.035993423651255</v>
+        <v>1.035148188273559</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053342630779724</v>
+        <v>1.05269458668311</v>
       </c>
       <c r="J16">
-        <v>1.033477892938596</v>
+        <v>1.032825952641154</v>
       </c>
       <c r="K16">
-        <v>1.043996060705328</v>
+        <v>1.042767135878048</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.049706994528891</v>
+        <v>1.048875660332349</v>
       </c>
       <c r="N16">
-        <v>1.015189897846593</v>
+        <v>1.01619106055392</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049162380425145</v>
+        <v>1.048505273815827</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042256111064504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041403495915393</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023770226668021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006775517687059</v>
+        <v>1.006038469024688</v>
       </c>
       <c r="D17">
-        <v>1.030949581285566</v>
+        <v>1.029637707823711</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.036698225254497</v>
+        <v>1.035806337543191</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053619210250467</v>
+        <v>1.05293239179932</v>
       </c>
       <c r="J17">
-        <v>1.033975789867184</v>
+        <v>1.033266559299257</v>
       </c>
       <c r="K17">
-        <v>1.044435873856744</v>
+        <v>1.043145297705412</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.050092007622922</v>
+        <v>1.049214386341773</v>
       </c>
       <c r="N17">
-        <v>1.015345868565424</v>
+        <v>1.016207754766941</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.049338496230338</v>
+        <v>1.048644734902647</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042569638799671</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041673682951513</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023833529986915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007386449771379</v>
+        <v>1.0066284961394</v>
       </c>
       <c r="D18">
-        <v>1.03127791264219</v>
+        <v>1.029943856200447</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.036845170375378</v>
+        <v>1.035936262254519</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053703670743919</v>
+        <v>1.053002833833505</v>
       </c>
       <c r="J18">
-        <v>1.034173281212976</v>
+        <v>1.033443404721321</v>
       </c>
       <c r="K18">
-        <v>1.044577739283517</v>
+        <v>1.043264990021435</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.050056835703215</v>
+        <v>1.04916223791774</v>
       </c>
       <c r="N18">
-        <v>1.015395622952886</v>
+        <v>1.016202934123539</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049074720979192</v>
+        <v>1.04836739424744</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04265840234802</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041745634504188</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023840876672888</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007444751552801</v>
+        <v>1.006696684557799</v>
       </c>
       <c r="D19">
-        <v>1.03121310689605</v>
+        <v>1.029891295367954</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.036480317646164</v>
+        <v>1.0355796331193</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053614944258968</v>
+        <v>1.052921089604306</v>
       </c>
       <c r="J19">
-        <v>1.034096424594835</v>
+        <v>1.033375901900471</v>
       </c>
       <c r="K19">
-        <v>1.044452191716727</v>
+        <v>1.043151382507004</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.049636392026526</v>
+        <v>1.048749825581421</v>
       </c>
       <c r="N19">
-        <v>1.015349463024831</v>
+        <v>1.016159575275994</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.048419439643736</v>
+        <v>1.047718237504242</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042575979065396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041672278004791</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023797516029973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005948882340383</v>
+        <v>1.005293598059856</v>
       </c>
       <c r="D20">
-        <v>1.030041092770646</v>
+        <v>1.028824695091908</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.034724366911985</v>
+        <v>1.033900339932974</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053043674501873</v>
+        <v>1.052413529040184</v>
       </c>
       <c r="J20">
-        <v>1.033252395059153</v>
+        <v>1.032621974522336</v>
       </c>
       <c r="K20">
-        <v>1.043575502318218</v>
+        <v>1.042378950555422</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.048182926362119</v>
+        <v>1.047372181352423</v>
       </c>
       <c r="N20">
-        <v>1.015035042782978</v>
+        <v>1.015998524943034</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046746399935572</v>
+        <v>1.046104786058484</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041960021594579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041130422589726</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023612121914805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002177675621887</v>
+        <v>1.001759659428983</v>
       </c>
       <c r="D21">
-        <v>1.027550441476212</v>
+        <v>1.0265735799269</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.032020585658907</v>
+        <v>1.031378085074583</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052053935987168</v>
+        <v>1.051575065717649</v>
       </c>
       <c r="J21">
-        <v>1.031584630429205</v>
+        <v>1.031183993792161</v>
       </c>
       <c r="K21">
-        <v>1.042028008130324</v>
+        <v>1.041068410352043</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.04641969281879</v>
+        <v>1.045788415127247</v>
       </c>
       <c r="N21">
-        <v>1.014479894215043</v>
+        <v>1.016032725383148</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.045310447879439</v>
+        <v>1.044810837047562</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040869096748732</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040207355802967</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023367846039264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9997770607423775</v>
+        <v>0.999507436953849</v>
       </c>
       <c r="D22">
-        <v>1.025974507807299</v>
+        <v>1.025147455799417</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.030340938422646</v>
+        <v>1.029812077060735</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051421446036709</v>
+        <v>1.051036872329457</v>
       </c>
       <c r="J22">
-        <v>1.030527041819765</v>
+        <v>1.030269264207004</v>
       </c>
       <c r="K22">
-        <v>1.041048388164538</v>
+        <v>1.040236672601969</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.045334381316099</v>
+        <v>1.044815215240935</v>
       </c>
       <c r="N22">
-        <v>1.014128845123028</v>
+        <v>1.016047258434336</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.044451501772198</v>
+        <v>1.044040618753676</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040163073643306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039604587534189</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02321147171249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001046261613479</v>
+        <v>1.000687610992215</v>
       </c>
       <c r="D23">
-        <v>1.026802109333181</v>
+        <v>1.025888477598899</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.031226333196628</v>
+        <v>1.030631174713217</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051752964168754</v>
+        <v>1.051313149918388</v>
       </c>
       <c r="J23">
-        <v>1.031082554455899</v>
+        <v>1.03073921072326</v>
       </c>
       <c r="K23">
-        <v>1.041559709744505</v>
+        <v>1.040662597170906</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.045904477893676</v>
+        <v>1.045319956435073</v>
       </c>
       <c r="N23">
-        <v>1.014312375148005</v>
+        <v>1.015995830576256</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.044902692394578</v>
+        <v>1.044440085508074</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.040515037738313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039895231349324</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023289791352695</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005968863389667</v>
+        <v>1.005314497492791</v>
       </c>
       <c r="D24">
-        <v>1.030030370204132</v>
+        <v>1.028814947991397</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.034678879469376</v>
+        <v>1.033855515868147</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.053027047067763</v>
+        <v>1.052397492634213</v>
       </c>
       <c r="J24">
-        <v>1.033239067152338</v>
+        <v>1.032609493913657</v>
       </c>
       <c r="K24">
-        <v>1.043549873208031</v>
+        <v>1.042354256150827</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.048123186348176</v>
+        <v>1.047313078565905</v>
       </c>
       <c r="N24">
-        <v>1.015026479751582</v>
+        <v>1.015988425716496</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.04665863863578</v>
+        <v>1.046017497780372</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041914717764342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041083106380029</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023602097185677</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011511326678852</v>
+        <v>1.010667456703109</v>
       </c>
       <c r="D25">
-        <v>1.033684175151348</v>
+        <v>1.0322273218602</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.038596228389968</v>
+        <v>1.037599417752554</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054423970717319</v>
+        <v>1.053652855683113</v>
       </c>
       <c r="J25">
-        <v>1.035657403424016</v>
+        <v>1.034841075331853</v>
       </c>
       <c r="K25">
-        <v>1.045781159954581</v>
+        <v>1.044345132246354</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.050623540021862</v>
+        <v>1.049640800830903</v>
       </c>
       <c r="N25">
-        <v>1.015827674072447</v>
+        <v>1.016527930095271</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04863748155498</v>
+        <v>1.04785971762039</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043489490544939</v>
+        <v>1.042487598204105</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023970828958869</v>
       </c>
     </row>
   </sheetData>
